--- a/County numbers IN.KY.OH and Income per capita.xlsx
+++ b/County numbers IN.KY.OH and Income per capita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2C3494-687C-D04D-B024-CFC99306CEA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F7B77-C8FE-8340-B676-CB69EF881079}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="3" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="2" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
   </bookViews>
   <sheets>
     <sheet name="CountyID" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="542">
   <si>
     <t>OH</t>
   </si>
@@ -1623,16 +1623,60 @@
   </si>
   <si>
     <t>ALL DATA PER CAPITA</t>
+  </si>
+  <si>
+    <t>2000  Income Data</t>
+  </si>
+  <si>
+    <t>2000 Income Data</t>
+  </si>
+  <si>
+    <t>2010 Income Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source for all series: </t>
+  </si>
+  <si>
+    <t>https://www.census.gov/data/tables/time-series/dec/cph-series/cph-l/cph-l-123.html</t>
+  </si>
+  <si>
+    <t>Indiana:</t>
+  </si>
+  <si>
+    <t>DeKalb County, IN</t>
+  </si>
+  <si>
+    <t>LaGrange County, IN</t>
+  </si>
+  <si>
+    <t>LaPorte County, IN</t>
+  </si>
+  <si>
+    <t>Kentucky:</t>
+  </si>
+  <si>
+    <t>Ohio:</t>
+  </si>
+  <si>
+    <t>http://www.stats.indiana.edu/topic/income.asp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1659,6 +1703,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000D1C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1677,20 +1727,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2005,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6E4CC1-91AE-A949-89D8-FB0B745DCDEE}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4108,7 +4162,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4425,6 +4479,9 @@
       <c r="I11" s="6">
         <v>291479</v>
       </c>
+      <c r="K11" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -4453,6 +4510,9 @@
       </c>
       <c r="I12" s="6">
         <v>26521</v>
+      </c>
+      <c r="K12" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -7090,24 +7150,2185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B23DF3-5912-DB45-94D5-24C26AFDA966}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="8">
+        <v>24011</v>
+      </c>
+      <c r="C3" s="9">
+        <v>33625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="9">
+        <v>331849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="8">
+        <v>31182</v>
+      </c>
+      <c r="C5" s="9">
+        <v>71435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="8">
+        <v>26084</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="8">
+        <v>22196</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="8">
+        <v>38479</v>
+      </c>
+      <c r="C8" s="9">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="8">
+        <v>30059</v>
+      </c>
+      <c r="C9" s="9">
+        <v>14957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="8">
+        <v>28372</v>
+      </c>
+      <c r="C10" s="9">
+        <v>20165</v>
+      </c>
+      <c r="K10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="8">
+        <v>25264</v>
+      </c>
+      <c r="C11" s="9">
+        <v>40930</v>
+      </c>
+      <c r="K11" t="s">
+        <v>535</v>
+      </c>
+      <c r="L11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="8">
+        <v>26810</v>
+      </c>
+      <c r="C12" s="9">
+        <v>96472</v>
+      </c>
+      <c r="K12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="8">
+        <v>23791</v>
+      </c>
+      <c r="C13" s="9">
+        <v>26556</v>
+      </c>
+      <c r="K13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="8">
+        <v>22821</v>
+      </c>
+      <c r="C14" s="9">
+        <v>33866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20547</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="8">
+        <v>23927</v>
+      </c>
+      <c r="C16" s="9">
+        <v>29820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="8">
+        <v>27798</v>
+      </c>
+      <c r="C17" s="9">
+        <v>46109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="8">
+        <v>26681</v>
+      </c>
+      <c r="C18" s="9">
+        <v>24555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19" s="8">
+        <v>26048</v>
+      </c>
+      <c r="C19" s="9">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="8">
+        <v>25147</v>
+      </c>
+      <c r="C20" s="9">
+        <v>118769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="8">
+        <v>31531</v>
+      </c>
+      <c r="C21" s="9">
+        <v>39674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="8">
+        <v>27540</v>
+      </c>
+      <c r="C22" s="9">
+        <v>182791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="8">
+        <v>25284</v>
+      </c>
+      <c r="C23" s="9">
+        <v>25588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="8">
+        <v>31038</v>
+      </c>
+      <c r="C24" s="9">
+        <v>70823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="8">
+        <v>24336</v>
+      </c>
+      <c r="C25" s="9">
+        <v>17954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="8">
+        <v>26677</v>
+      </c>
+      <c r="C26" s="9">
+        <v>22151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="8">
+        <v>23813</v>
+      </c>
+      <c r="C27" s="9">
+        <v>20511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="8">
+        <v>24497</v>
+      </c>
+      <c r="C28" s="9">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="8">
+        <v>23072</v>
+      </c>
+      <c r="C29" s="9">
+        <v>73403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="8">
+        <v>22203</v>
+      </c>
+      <c r="C30" s="9">
+        <v>33157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45817</v>
+      </c>
+      <c r="C31" s="9">
+        <v>182740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="8">
+        <v>34659</v>
+      </c>
+      <c r="C32" s="9">
+        <v>55391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="8">
+        <v>26429</v>
+      </c>
+      <c r="C33" s="9">
+        <v>34325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="8">
+        <v>32008</v>
+      </c>
+      <c r="C34" s="9">
+        <v>104093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="8">
+        <v>25691</v>
+      </c>
+      <c r="C35" s="9">
+        <v>48508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="8">
+        <v>28327</v>
+      </c>
+      <c r="C36" s="9">
+        <v>84964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="8">
+        <v>26057</v>
+      </c>
+      <c r="C37" s="9">
+        <v>38075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="8">
+        <v>23925</v>
+      </c>
+      <c r="C38" s="9">
+        <v>41335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="8">
+        <v>26261</v>
+      </c>
+      <c r="C39" s="9">
+        <v>30043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="8">
+        <v>21571</v>
+      </c>
+      <c r="C40" s="9">
+        <v>21806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="8">
+        <v>22386</v>
+      </c>
+      <c r="C41" s="9">
+        <v>31705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="8">
+        <v>22304</v>
+      </c>
+      <c r="C42" s="9">
+        <v>27554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="8">
+        <v>30761</v>
+      </c>
+      <c r="C43" s="9">
+        <v>115209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="8">
+        <v>24452</v>
+      </c>
+      <c r="C44" s="9">
+        <v>39256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="8">
+        <v>27297</v>
+      </c>
+      <c r="C45" s="9">
+        <v>74057</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46" s="8">
+        <v>20085</v>
+      </c>
+      <c r="C46" s="9">
+        <v>34909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="8">
+        <v>27088</v>
+      </c>
+      <c r="C47" s="9">
+        <v>484564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" s="8">
+        <v>25268</v>
+      </c>
+      <c r="C48" s="9">
+        <v>110106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="8">
+        <v>24407</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="8">
+        <v>25500</v>
+      </c>
+      <c r="C50" s="9">
+        <v>133358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="8">
+        <v>32271</v>
+      </c>
+      <c r="C51" s="9">
+        <v>860454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="8">
+        <v>24842</v>
+      </c>
+      <c r="C52" s="9">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="8">
+        <v>23831</v>
+      </c>
+      <c r="C53" s="9">
+        <v>10369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="8">
+        <v>22344</v>
+      </c>
+      <c r="C54" s="9">
+        <v>36082</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="8">
+        <v>24460</v>
+      </c>
+      <c r="C55" s="9">
+        <v>120563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="8">
+        <v>25052</v>
+      </c>
+      <c r="C56" s="9">
+        <v>37629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" s="8">
+        <v>27276</v>
+      </c>
+      <c r="C57" s="9">
+        <v>66689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="8">
+        <v>22961</v>
+      </c>
+      <c r="C58" s="9">
+        <v>14566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="8">
+        <v>23754</v>
+      </c>
+      <c r="C59" s="9">
+        <v>46275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="8">
+        <v>24685</v>
+      </c>
+      <c r="C60" s="9">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="8">
+        <v>22125</v>
+      </c>
+      <c r="C61" s="9">
+        <v>19306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="8">
+        <v>22073</v>
+      </c>
+      <c r="C62" s="9">
+        <v>21786</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="8">
+        <v>21581</v>
+      </c>
+      <c r="C63" s="9">
+        <v>17241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="8">
+        <v>23071</v>
+      </c>
+      <c r="C64" s="9">
+        <v>18899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="8">
+        <v>21890</v>
+      </c>
+      <c r="C65" s="9">
+        <v>12837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="8">
+        <v>31813</v>
+      </c>
+      <c r="C66" s="9">
+        <v>146798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="8">
+        <v>28347</v>
+      </c>
+      <c r="C67" s="9">
+        <v>27061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="8">
+        <v>23731</v>
+      </c>
+      <c r="C68" s="9">
+        <v>13755</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" s="8">
+        <v>22791</v>
+      </c>
+      <c r="C69" s="9">
+        <v>36019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="8">
+        <v>23781</v>
+      </c>
+      <c r="C70" s="9">
+        <v>27401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" s="8">
+        <v>24100</v>
+      </c>
+      <c r="C71" s="9">
+        <v>26523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" s="8">
+        <v>25975</v>
+      </c>
+      <c r="C72" s="9">
+        <v>18261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" s="8">
+        <v>27596</v>
+      </c>
+      <c r="C73" s="9">
+        <v>265559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="8">
+        <v>21948</v>
+      </c>
+      <c r="C74" s="9">
+        <v>22960</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="8">
+        <v>27732</v>
+      </c>
+      <c r="C75" s="9">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="8">
+        <v>24727</v>
+      </c>
+      <c r="C76" s="9">
+        <v>20391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="8">
+        <v>19722</v>
+      </c>
+      <c r="C77" s="9">
+        <v>23556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="8">
+        <v>26537</v>
+      </c>
+      <c r="C78" s="9">
+        <v>33214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="8">
+        <v>20345</v>
+      </c>
+      <c r="C79" s="9">
+        <v>21751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="8">
+        <v>21547</v>
+      </c>
+      <c r="C80" s="9">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="8">
+        <v>25038</v>
+      </c>
+      <c r="C81" s="9">
+        <v>148955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="8">
+        <v>28935</v>
+      </c>
+      <c r="C82" s="9">
+        <v>16577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="8">
+        <v>23795</v>
+      </c>
+      <c r="C83" s="9">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" s="8">
+        <v>29182</v>
+      </c>
+      <c r="C84" s="9">
+        <v>171922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="8">
+        <v>24319</v>
+      </c>
+      <c r="C85" s="9">
+        <v>16788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="8">
+        <v>23080</v>
+      </c>
+      <c r="C86" s="9">
+        <v>105848</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" s="8">
+        <v>25825</v>
+      </c>
+      <c r="C87" s="9">
+        <v>34960</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" s="8">
+        <v>23987</v>
+      </c>
+      <c r="C88" s="9">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="8">
+        <v>29510</v>
+      </c>
+      <c r="C89" s="9">
+        <v>52383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" s="8">
+        <v>23014</v>
+      </c>
+      <c r="C90" s="9">
+        <v>27223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" s="8">
+        <v>25126</v>
+      </c>
+      <c r="C91" s="9">
+        <v>71097</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92" s="8">
+        <v>26875</v>
+      </c>
+      <c r="C92" s="9">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="8">
+        <v>24813</v>
+      </c>
+      <c r="C93" s="9">
+        <v>25267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="8">
+        <v>27043</v>
+      </c>
+      <c r="C94" s="9">
+        <v>30707</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D1684-A849-7F48-BB51-2498A53778A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3">
+        <v>28104</v>
+      </c>
+      <c r="C3" s="9">
+        <v>34387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4">
+        <v>34471</v>
+      </c>
+      <c r="C4" s="9">
+        <v>355329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5">
+        <v>37554</v>
+      </c>
+      <c r="C5" s="9">
+        <v>76794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6">
+        <v>33505</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7">
+        <v>30572</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8">
+        <v>51001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>56640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9">
+        <v>34191</v>
+      </c>
+      <c r="C9" s="9">
+        <v>15242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10">
+        <v>32897</v>
+      </c>
+      <c r="C10" s="9">
+        <v>20155</v>
+      </c>
+      <c r="K10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11">
+        <v>29877</v>
+      </c>
+      <c r="C11" s="9">
+        <v>38966</v>
+      </c>
+      <c r="K11" t="s">
+        <v>535</v>
+      </c>
+      <c r="L11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12">
+        <v>35794</v>
+      </c>
+      <c r="C12" s="9">
+        <v>110232</v>
+      </c>
+      <c r="K12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13">
+        <v>30013</v>
+      </c>
+      <c r="C13" s="9">
+        <v>26890</v>
+      </c>
+      <c r="K13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14">
+        <v>29811</v>
+      </c>
+      <c r="C14" s="9">
+        <v>33224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15">
+        <v>26159</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16">
+        <v>31645</v>
+      </c>
+      <c r="C16" s="9">
+        <v>31648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17">
+        <v>35402</v>
+      </c>
+      <c r="C17" s="9">
+        <v>50047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18">
+        <v>33209</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19">
+        <v>31349</v>
+      </c>
+      <c r="C19" s="9">
+        <v>42223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20">
+        <v>28156</v>
+      </c>
+      <c r="C20" s="9">
+        <v>117671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21">
+        <v>40097</v>
+      </c>
+      <c r="C21" s="9">
+        <v>41889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>30297</v>
+      </c>
+      <c r="C22" s="9">
+        <v>197559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23">
+        <v>29470</v>
+      </c>
+      <c r="C23" s="9">
+        <v>24277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24">
+        <v>38473</v>
+      </c>
+      <c r="C24" s="9">
+        <v>74578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25">
+        <v>31464</v>
+      </c>
+      <c r="C25" s="9">
+        <v>17240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26">
+        <v>36928</v>
+      </c>
+      <c r="C26" s="9">
+        <v>23087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27">
+        <v>31476</v>
+      </c>
+      <c r="C27" s="9">
+        <v>20836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28">
+        <v>33572</v>
+      </c>
+      <c r="C28" s="9">
+        <v>33503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>30421</v>
+      </c>
+      <c r="C29" s="9">
+        <v>70061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30">
+        <v>30880</v>
+      </c>
+      <c r="C30" s="9">
+        <v>33165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31">
+        <v>53680</v>
+      </c>
+      <c r="C31" s="9">
+        <v>274569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32">
+        <v>38652</v>
+      </c>
+      <c r="C32" s="9">
+        <v>70002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>33214</v>
+      </c>
+      <c r="C33" s="9">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34">
+        <v>37730</v>
+      </c>
+      <c r="C34" s="9">
+        <v>145448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35">
+        <v>28915</v>
+      </c>
+      <c r="C35" s="9">
+        <v>49462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36">
+        <v>31075</v>
+      </c>
+      <c r="C36" s="9">
+        <v>82752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37">
+        <v>31721</v>
+      </c>
+      <c r="C37" s="9">
+        <v>37124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38">
+        <v>34123</v>
+      </c>
+      <c r="C38" s="9">
+        <v>42376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39">
+        <v>33729</v>
+      </c>
+      <c r="C39" s="9">
+        <v>33478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40">
+        <v>30011</v>
+      </c>
+      <c r="C40" s="9">
+        <v>21253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41">
+        <v>32627</v>
+      </c>
+      <c r="C41" s="9">
+        <v>32428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42">
+        <v>28138</v>
+      </c>
+      <c r="C42" s="9">
+        <v>28525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43">
+        <v>37001</v>
+      </c>
+      <c r="C43" s="9">
+        <v>139654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44">
+        <v>34582</v>
+      </c>
+      <c r="C44" s="9">
+        <v>38440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45">
+        <v>34189</v>
+      </c>
+      <c r="C45" s="9">
+        <v>77358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46">
+        <v>25624</v>
+      </c>
+      <c r="C46" s="9">
+        <v>37128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47">
+        <v>34118</v>
+      </c>
+      <c r="C47" s="9">
+        <v>496005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48">
+        <v>31932</v>
+      </c>
+      <c r="C48" s="9">
+        <v>111467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49">
+        <v>30765</v>
+      </c>
+      <c r="C49" s="9">
+        <v>46134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50">
+        <v>29047</v>
+      </c>
+      <c r="C50" s="9">
+        <v>131636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51">
+        <v>41633</v>
+      </c>
+      <c r="C51" s="9">
+        <v>903393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52">
+        <v>31112</v>
+      </c>
+      <c r="C52" s="9">
+        <v>47051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53">
+        <v>32510</v>
+      </c>
+      <c r="C53" s="9">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54">
+        <v>25675</v>
+      </c>
+      <c r="C54" s="9">
+        <v>36903</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55">
+        <v>30726</v>
+      </c>
+      <c r="C55" s="9">
+        <v>137974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56">
+        <v>33383</v>
+      </c>
+      <c r="C56" s="9">
+        <v>38124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57">
+        <v>34082</v>
+      </c>
+      <c r="C57" s="9">
+        <v>68894</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58">
+        <v>30934</v>
+      </c>
+      <c r="C58" s="9">
+        <v>14244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59">
+        <v>28088</v>
+      </c>
+      <c r="C59" s="9">
+        <v>47536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60">
+        <v>49274</v>
+      </c>
+      <c r="C60" s="9">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61">
+        <v>28483</v>
+      </c>
+      <c r="C61" s="9">
+        <v>19840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62">
+        <v>29686</v>
+      </c>
+      <c r="C62" s="9">
+        <v>21575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63">
+        <v>27632</v>
+      </c>
+      <c r="C63" s="9">
+        <v>17339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64">
+        <v>28212</v>
+      </c>
+      <c r="C64" s="9">
+        <v>19338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65">
+        <v>31041</v>
+      </c>
+      <c r="C65" s="9">
+        <v>12845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66">
+        <v>38595</v>
+      </c>
+      <c r="C66" s="9">
+        <v>164343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67">
+        <v>37764</v>
+      </c>
+      <c r="C67" s="9">
+        <v>25910</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68">
+        <v>33437</v>
+      </c>
+      <c r="C68" s="9">
+        <v>13402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69">
+        <v>28115</v>
+      </c>
+      <c r="C69" s="9">
+        <v>37963</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70">
+        <v>29416</v>
+      </c>
+      <c r="C70" s="9">
+        <v>26171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71">
+        <v>33536</v>
+      </c>
+      <c r="C71" s="9">
+        <v>28818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72">
+        <v>32360</v>
+      </c>
+      <c r="C72" s="9">
+        <v>17392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73">
+        <v>34597</v>
+      </c>
+      <c r="C73" s="9">
+        <v>266931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74">
+        <v>27567</v>
+      </c>
+      <c r="C74" s="9">
+        <v>24181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75">
+        <v>33097</v>
+      </c>
+      <c r="C75" s="9">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76">
+        <v>33721</v>
+      </c>
+      <c r="C76" s="9">
+        <v>20952</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77">
+        <v>27346</v>
+      </c>
+      <c r="C77" s="9">
+        <v>23363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78">
+        <v>30572</v>
+      </c>
+      <c r="C78" s="9">
+        <v>34185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79">
+        <v>28534</v>
+      </c>
+      <c r="C79" s="9">
+        <v>21475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80">
+        <v>24078</v>
+      </c>
+      <c r="C80" s="9">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81">
+        <v>30518</v>
+      </c>
+      <c r="C81" s="9">
+        <v>172780</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82">
+        <v>32469</v>
+      </c>
+      <c r="C82" s="9">
+        <v>15936</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83">
+        <v>28609</v>
+      </c>
+      <c r="C83" s="9">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84">
+        <v>38313</v>
+      </c>
+      <c r="C84" s="9">
+        <v>179703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85">
+        <v>32033</v>
+      </c>
+      <c r="C85" s="9">
+        <v>16212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86">
+        <v>31310</v>
+      </c>
+      <c r="C86" s="9">
+        <v>107848</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87">
+        <v>31321</v>
+      </c>
+      <c r="C87" s="9">
+        <v>32888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88">
+        <v>34737</v>
+      </c>
+      <c r="C88" s="9">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89">
+        <v>40961</v>
+      </c>
+      <c r="C89" s="9">
+        <v>59689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90">
+        <v>27918</v>
+      </c>
+      <c r="C90" s="9">
+        <v>28262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91">
+        <v>30847</v>
+      </c>
+      <c r="C91" s="9">
+        <v>68917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92">
+        <v>33427</v>
+      </c>
+      <c r="C92" s="9">
+        <v>27636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93">
+        <v>33093</v>
+      </c>
+      <c r="C93" s="9">
+        <v>24643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94">
+        <v>33090</v>
+      </c>
+      <c r="C94" s="9">
+        <v>33292</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/County numbers IN.KY.OH and Income per capita.xlsx
+++ b/County numbers IN.KY.OH and Income per capita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F7B77-C8FE-8340-B676-CB69EF881079}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B355313-8BDE-0F40-AA98-E66FBF2230CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="2" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="1" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
   </bookViews>
   <sheets>
     <sheet name="CountyID" sheetId="1" r:id="rId1"/>
@@ -4161,7 +4161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D18F04-88A1-F646-94FB-EAFD7F2B0F21}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -7152,7 +7152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B23DF3-5912-DB45-94D5-24C26AFDA966}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/County numbers IN.KY.OH and Income per capita.xlsx
+++ b/County numbers IN.KY.OH and Income per capita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B355313-8BDE-0F40-AA98-E66FBF2230CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF772B-6093-6643-B609-C721814C6018}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="1" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="844">
   <si>
     <t>OH</t>
   </si>
@@ -1659,24 +1659,922 @@
   </si>
   <si>
     <t>http://www.stats.indiana.edu/topic/income.asp</t>
+  </si>
+  <si>
+    <t>Adair County, Kentucky</t>
+  </si>
+  <si>
+    <t>Allen County, Kentucky</t>
+  </si>
+  <si>
+    <t>Anderson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Ballard County, Kentucky</t>
+  </si>
+  <si>
+    <t>Barren County, Kentucky</t>
+  </si>
+  <si>
+    <t>Bath County, Kentucky</t>
+  </si>
+  <si>
+    <t>Bell County, Kentucky</t>
+  </si>
+  <si>
+    <t>Boone County, Kentucky</t>
+  </si>
+  <si>
+    <t>Bourbon County, Kentucky</t>
+  </si>
+  <si>
+    <t>Boyd County, Kentucky</t>
+  </si>
+  <si>
+    <t>Boyle County, Kentucky</t>
+  </si>
+  <si>
+    <t>Bracken County, Kentucky</t>
+  </si>
+  <si>
+    <t>Breathitt County, Kentucky</t>
+  </si>
+  <si>
+    <t>Breckinridge County, Kentucky</t>
+  </si>
+  <si>
+    <t>Bullitt County, Kentucky</t>
+  </si>
+  <si>
+    <t>Butler County, Kentucky</t>
+  </si>
+  <si>
+    <t>Caldwell County, Kentucky</t>
+  </si>
+  <si>
+    <t>Calloway County, Kentucky</t>
+  </si>
+  <si>
+    <t>Campbell County, Kentucky</t>
+  </si>
+  <si>
+    <t>Carlisle County, Kentucky</t>
+  </si>
+  <si>
+    <t>Carroll County, Kentucky</t>
+  </si>
+  <si>
+    <t>Carter County, Kentucky</t>
+  </si>
+  <si>
+    <t>Casey County, Kentucky</t>
+  </si>
+  <si>
+    <t>Christian County, Kentucky</t>
+  </si>
+  <si>
+    <t>Clark County, Kentucky</t>
+  </si>
+  <si>
+    <t>Clay County, Kentucky</t>
+  </si>
+  <si>
+    <t>Clinton County, Kentucky</t>
+  </si>
+  <si>
+    <t>Crittenden County, Kentucky</t>
+  </si>
+  <si>
+    <t>Cumberland County, Kentucky</t>
+  </si>
+  <si>
+    <t>Daviess County, Kentucky</t>
+  </si>
+  <si>
+    <t>Edmonson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Elliott County, Kentucky</t>
+  </si>
+  <si>
+    <t>Estill County, Kentucky</t>
+  </si>
+  <si>
+    <t>Fayette County, Kentucky</t>
+  </si>
+  <si>
+    <t>Fleming County, Kentucky</t>
+  </si>
+  <si>
+    <t>Floyd County, Kentucky</t>
+  </si>
+  <si>
+    <t>Franklin County, Kentucky</t>
+  </si>
+  <si>
+    <t>Fulton County, Kentucky</t>
+  </si>
+  <si>
+    <t>Gallatin County, Kentucky</t>
+  </si>
+  <si>
+    <t>Garrard County, Kentucky</t>
+  </si>
+  <si>
+    <t>Grant County, Kentucky</t>
+  </si>
+  <si>
+    <t>Graves County, Kentucky</t>
+  </si>
+  <si>
+    <t>Grayson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Green County, Kentucky</t>
+  </si>
+  <si>
+    <t>Greenup County, Kentucky</t>
+  </si>
+  <si>
+    <t>Hancock County, Kentucky</t>
+  </si>
+  <si>
+    <t>Hardin County, Kentucky</t>
+  </si>
+  <si>
+    <t>Harlan County, Kentucky</t>
+  </si>
+  <si>
+    <t>Harrison County, Kentucky</t>
+  </si>
+  <si>
+    <t>Hart County, Kentucky</t>
+  </si>
+  <si>
+    <t>Henderson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Henry County, Kentucky</t>
+  </si>
+  <si>
+    <t>Hickman County, Kentucky</t>
+  </si>
+  <si>
+    <t>Hopkins County, Kentucky</t>
+  </si>
+  <si>
+    <t>Jackson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Jefferson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Jessamine County, Kentucky</t>
+  </si>
+  <si>
+    <t>Johnson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Kenton County, Kentucky</t>
+  </si>
+  <si>
+    <t>Knott County, Kentucky</t>
+  </si>
+  <si>
+    <t>Knox County, Kentucky</t>
+  </si>
+  <si>
+    <t>Larue County, Kentucky</t>
+  </si>
+  <si>
+    <t>Laurel County, Kentucky</t>
+  </si>
+  <si>
+    <t>Lawrence County, Kentucky</t>
+  </si>
+  <si>
+    <t>Lee County, Kentucky</t>
+  </si>
+  <si>
+    <t>Leslie County, Kentucky</t>
+  </si>
+  <si>
+    <t>Letcher County, Kentucky</t>
+  </si>
+  <si>
+    <t>Lewis County, Kentucky</t>
+  </si>
+  <si>
+    <t>Lincoln County, Kentucky</t>
+  </si>
+  <si>
+    <t>Livingston County, Kentucky</t>
+  </si>
+  <si>
+    <t>Logan County, Kentucky</t>
+  </si>
+  <si>
+    <t>Lyon County, Kentucky</t>
+  </si>
+  <si>
+    <t>McCracken County, Kentucky</t>
+  </si>
+  <si>
+    <t>McCreary County, Kentucky</t>
+  </si>
+  <si>
+    <t>McLean County, Kentucky</t>
+  </si>
+  <si>
+    <t>Madison County, Kentucky</t>
+  </si>
+  <si>
+    <t>Magoffin County, Kentucky</t>
+  </si>
+  <si>
+    <t>Marion County, Kentucky</t>
+  </si>
+  <si>
+    <t>Marshall County, Kentucky</t>
+  </si>
+  <si>
+    <t>Martin County, Kentucky</t>
+  </si>
+  <si>
+    <t>Mason County, Kentucky</t>
+  </si>
+  <si>
+    <t>Meade County, Kentucky</t>
+  </si>
+  <si>
+    <t>Menifee County, Kentucky</t>
+  </si>
+  <si>
+    <t>Mercer County, Kentucky</t>
+  </si>
+  <si>
+    <t>Metcalfe County, Kentucky</t>
+  </si>
+  <si>
+    <t>Monroe County, Kentucky</t>
+  </si>
+  <si>
+    <t>Montgomery County, Kentucky</t>
+  </si>
+  <si>
+    <t>Morgan County, Kentucky</t>
+  </si>
+  <si>
+    <t>Muhlenberg County, Kentucky</t>
+  </si>
+  <si>
+    <t>Nelson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Nicholas County, Kentucky</t>
+  </si>
+  <si>
+    <t>Ohio County, Kentucky</t>
+  </si>
+  <si>
+    <t>Oldham County, Kentucky</t>
+  </si>
+  <si>
+    <t>Owen County, Kentucky</t>
+  </si>
+  <si>
+    <t>Owsley County, Kentucky</t>
+  </si>
+  <si>
+    <t>Pendleton County, Kentucky</t>
+  </si>
+  <si>
+    <t>Perry County, Kentucky</t>
+  </si>
+  <si>
+    <t>Pike County, Kentucky</t>
+  </si>
+  <si>
+    <t>Powell County, Kentucky</t>
+  </si>
+  <si>
+    <t>Pulaski County, Kentucky</t>
+  </si>
+  <si>
+    <t>Robertson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Rockcastle County, Kentucky</t>
+  </si>
+  <si>
+    <t>Rowan County, Kentucky</t>
+  </si>
+  <si>
+    <t>Russell County, Kentucky</t>
+  </si>
+  <si>
+    <t>Scott County, Kentucky</t>
+  </si>
+  <si>
+    <t>Shelby County, Kentucky</t>
+  </si>
+  <si>
+    <t>Simpson County, Kentucky</t>
+  </si>
+  <si>
+    <t>Spencer County, Kentucky</t>
+  </si>
+  <si>
+    <t>Taylor County, Kentucky</t>
+  </si>
+  <si>
+    <t>Todd County, Kentucky</t>
+  </si>
+  <si>
+    <t>Trigg County, Kentucky</t>
+  </si>
+  <si>
+    <t>Trimble County, Kentucky</t>
+  </si>
+  <si>
+    <t>Union County, Kentucky</t>
+  </si>
+  <si>
+    <t>Warren County, Kentucky</t>
+  </si>
+  <si>
+    <t>Washington County, Kentucky</t>
+  </si>
+  <si>
+    <t>Wayne County, Kentucky</t>
+  </si>
+  <si>
+    <t>Webster County, Kentucky</t>
+  </si>
+  <si>
+    <t>Whitley County, Kentucky</t>
+  </si>
+  <si>
+    <t>Wolfe County, Kentucky</t>
+  </si>
+  <si>
+    <t>Woodford County, Kentucky</t>
+  </si>
+  <si>
+    <t>Adams County, Indiana</t>
+  </si>
+  <si>
+    <t>Allen County, Indiana</t>
+  </si>
+  <si>
+    <t>Bartholomew County, Indiana</t>
+  </si>
+  <si>
+    <t>Benton County, Indiana</t>
+  </si>
+  <si>
+    <t>Blackford County, Indiana</t>
+  </si>
+  <si>
+    <t>Boone County, Indiana</t>
+  </si>
+  <si>
+    <t>Brown County, Indiana</t>
+  </si>
+  <si>
+    <t>Carroll County, Indiana</t>
+  </si>
+  <si>
+    <t>Cass County, Indiana</t>
+  </si>
+  <si>
+    <t>Clark County, Indiana</t>
+  </si>
+  <si>
+    <t>Clay County, Indiana</t>
+  </si>
+  <si>
+    <t>Clinton County, Indiana</t>
+  </si>
+  <si>
+    <t>Crawford County, Indiana</t>
+  </si>
+  <si>
+    <t>Daviess County, Indiana</t>
+  </si>
+  <si>
+    <t>Dearborn County, Indiana</t>
+  </si>
+  <si>
+    <t>Decatur County, Indiana</t>
+  </si>
+  <si>
+    <t>DeKalb County, Indiana</t>
+  </si>
+  <si>
+    <t>Delaware County, Indiana</t>
+  </si>
+  <si>
+    <t>Dubois County, Indiana</t>
+  </si>
+  <si>
+    <t>Elkhart County, Indiana</t>
+  </si>
+  <si>
+    <t>Fayette County, Indiana</t>
+  </si>
+  <si>
+    <t>Floyd County, Indiana</t>
+  </si>
+  <si>
+    <t>Fountain County, Indiana</t>
+  </si>
+  <si>
+    <t>Franklin County, Indiana</t>
+  </si>
+  <si>
+    <t>Fulton County, Indiana</t>
+  </si>
+  <si>
+    <t>Gibson County, Indiana</t>
+  </si>
+  <si>
+    <t>Grant County, Indiana</t>
+  </si>
+  <si>
+    <t>Greene County, Indiana</t>
+  </si>
+  <si>
+    <t>Hamilton County, Indiana</t>
+  </si>
+  <si>
+    <t>Hancock County, Indiana</t>
+  </si>
+  <si>
+    <t>Harrison County, Indiana</t>
+  </si>
+  <si>
+    <t>Hendricks County, Indiana</t>
+  </si>
+  <si>
+    <t>Henry County, Indiana</t>
+  </si>
+  <si>
+    <t>Howard County, Indiana</t>
+  </si>
+  <si>
+    <t>Huntington County, Indiana</t>
+  </si>
+  <si>
+    <t>Jackson County, Indiana</t>
+  </si>
+  <si>
+    <t>Jasper County, Indiana</t>
+  </si>
+  <si>
+    <t>Jay County, Indiana</t>
+  </si>
+  <si>
+    <t>Jefferson County, Indiana</t>
+  </si>
+  <si>
+    <t>Jennings County, Indiana</t>
+  </si>
+  <si>
+    <t>Johnson County, Indiana</t>
+  </si>
+  <si>
+    <t>Knox County, Indiana</t>
+  </si>
+  <si>
+    <t>Kosciusko County, Indiana</t>
+  </si>
+  <si>
+    <t>LaGrange County, Indiana</t>
+  </si>
+  <si>
+    <t>Lake County, Indiana</t>
+  </si>
+  <si>
+    <t>LaPorte County, Indiana</t>
+  </si>
+  <si>
+    <t>Lawrence County, Indiana</t>
+  </si>
+  <si>
+    <t>Madison County, Indiana</t>
+  </si>
+  <si>
+    <t>Marion County, Indiana</t>
+  </si>
+  <si>
+    <t>Marshall County, Indiana</t>
+  </si>
+  <si>
+    <t>Martin County, Indiana</t>
+  </si>
+  <si>
+    <t>Miami County, Indiana</t>
+  </si>
+  <si>
+    <t>Monroe County, Indiana</t>
+  </si>
+  <si>
+    <t>Montgomery County, Indiana</t>
+  </si>
+  <si>
+    <t>Morgan County, Indiana</t>
+  </si>
+  <si>
+    <t>Newton County, Indiana</t>
+  </si>
+  <si>
+    <t>Noble County, Indiana</t>
+  </si>
+  <si>
+    <t>Ohio County, Indiana</t>
+  </si>
+  <si>
+    <t>Orange County, Indiana</t>
+  </si>
+  <si>
+    <t>Owen County, Indiana</t>
+  </si>
+  <si>
+    <t>Parke County, Indiana</t>
+  </si>
+  <si>
+    <t>Perry County, Indiana</t>
+  </si>
+  <si>
+    <t>Pike County, Indiana</t>
+  </si>
+  <si>
+    <t>Porter County, Indiana</t>
+  </si>
+  <si>
+    <t>Posey County, Indiana</t>
+  </si>
+  <si>
+    <t>Pulaski County, Indiana</t>
+  </si>
+  <si>
+    <t>Putnam County, Indiana</t>
+  </si>
+  <si>
+    <t>Randolph County, Indiana</t>
+  </si>
+  <si>
+    <t>Ripley County, Indiana</t>
+  </si>
+  <si>
+    <t>Rush County, Indiana</t>
+  </si>
+  <si>
+    <t>St. Joseph County, Indiana</t>
+  </si>
+  <si>
+    <t>Scott County, Indiana</t>
+  </si>
+  <si>
+    <t>Shelby County, Indiana</t>
+  </si>
+  <si>
+    <t>Spencer County, Indiana</t>
+  </si>
+  <si>
+    <t>Starke County, Indiana</t>
+  </si>
+  <si>
+    <t>Steuben County, Indiana</t>
+  </si>
+  <si>
+    <t>Sullivan County, Indiana</t>
+  </si>
+  <si>
+    <t>Switzerland County, Indiana</t>
+  </si>
+  <si>
+    <t>Tippecanoe County, Indiana</t>
+  </si>
+  <si>
+    <t>Tipton County, Indiana</t>
+  </si>
+  <si>
+    <t>Union County, Indiana</t>
+  </si>
+  <si>
+    <t>Vanderburgh County, Indiana</t>
+  </si>
+  <si>
+    <t>Vermillion County, Indiana</t>
+  </si>
+  <si>
+    <t>Vigo County, Indiana</t>
+  </si>
+  <si>
+    <t>Wabash County, Indiana</t>
+  </si>
+  <si>
+    <t>Warren County, Indiana</t>
+  </si>
+  <si>
+    <t>Warrick County, Indiana</t>
+  </si>
+  <si>
+    <t>Washington County, Indiana</t>
+  </si>
+  <si>
+    <t>Wayne County, Indiana</t>
+  </si>
+  <si>
+    <t>Wells County, Indiana</t>
+  </si>
+  <si>
+    <t>White County, Indiana</t>
+  </si>
+  <si>
+    <t>Whitley County, Indiana</t>
+  </si>
+  <si>
+    <t>Adams County, Ohio</t>
+  </si>
+  <si>
+    <t>Allen County, Ohio</t>
+  </si>
+  <si>
+    <t>Ashland County, Ohio</t>
+  </si>
+  <si>
+    <t>Ashtabula County, Ohio</t>
+  </si>
+  <si>
+    <t>Athens County, Ohio</t>
+  </si>
+  <si>
+    <t>Auglaize County, Ohio</t>
+  </si>
+  <si>
+    <t>Belmont County, Ohio</t>
+  </si>
+  <si>
+    <t>Brown County, Ohio</t>
+  </si>
+  <si>
+    <t>Butler County, Ohio</t>
+  </si>
+  <si>
+    <t>Carroll County, Ohio</t>
+  </si>
+  <si>
+    <t>Champaign County, Ohio</t>
+  </si>
+  <si>
+    <t>Clark County, Ohio</t>
+  </si>
+  <si>
+    <t>Clermont County, Ohio</t>
+  </si>
+  <si>
+    <t>Clinton County, Ohio</t>
+  </si>
+  <si>
+    <t>Columbiana County, Ohio</t>
+  </si>
+  <si>
+    <t>Coshocton County, Ohio</t>
+  </si>
+  <si>
+    <t>Crawford County, Ohio</t>
+  </si>
+  <si>
+    <t>Cuyahoga County, Ohio</t>
+  </si>
+  <si>
+    <t>Darke County, Ohio</t>
+  </si>
+  <si>
+    <t>Defiance County, Ohio</t>
+  </si>
+  <si>
+    <t>Delaware County, Ohio</t>
+  </si>
+  <si>
+    <t>Erie County, Ohio</t>
+  </si>
+  <si>
+    <t>Fairfield County, Ohio</t>
+  </si>
+  <si>
+    <t>Fayette County, Ohio</t>
+  </si>
+  <si>
+    <t>Franklin County, Ohio</t>
+  </si>
+  <si>
+    <t>Fulton County, Ohio</t>
+  </si>
+  <si>
+    <t>Gallia County, Ohio</t>
+  </si>
+  <si>
+    <t>Geauga County, Ohio</t>
+  </si>
+  <si>
+    <t>Greene County, Ohio</t>
+  </si>
+  <si>
+    <t>Guernsey County, Ohio</t>
+  </si>
+  <si>
+    <t>Hamilton County, Ohio</t>
+  </si>
+  <si>
+    <t>Hancock County, Ohio</t>
+  </si>
+  <si>
+    <t>Hardin County, Ohio</t>
+  </si>
+  <si>
+    <t>Harrison County, Ohio</t>
+  </si>
+  <si>
+    <t>Henry County, Ohio</t>
+  </si>
+  <si>
+    <t>Highland County, Ohio</t>
+  </si>
+  <si>
+    <t>Hocking County, Ohio</t>
+  </si>
+  <si>
+    <t>Holmes County, Ohio</t>
+  </si>
+  <si>
+    <t>Huron County, Ohio</t>
+  </si>
+  <si>
+    <t>Jackson County, Ohio</t>
+  </si>
+  <si>
+    <t>Jefferson County, Ohio</t>
+  </si>
+  <si>
+    <t>Knox County, Ohio</t>
+  </si>
+  <si>
+    <t>Lake County, Ohio</t>
+  </si>
+  <si>
+    <t>Lawrence County, Ohio</t>
+  </si>
+  <si>
+    <t>Licking County, Ohio</t>
+  </si>
+  <si>
+    <t>Logan County, Ohio</t>
+  </si>
+  <si>
+    <t>Lorain County, Ohio</t>
+  </si>
+  <si>
+    <t>Lucas County, Ohio</t>
+  </si>
+  <si>
+    <t>Madison County, Ohio</t>
+  </si>
+  <si>
+    <t>Mahoning County, Ohio</t>
+  </si>
+  <si>
+    <t>Marion County, Ohio</t>
+  </si>
+  <si>
+    <t>Medina County, Ohio</t>
+  </si>
+  <si>
+    <t>Meigs County, Ohio</t>
+  </si>
+  <si>
+    <t>Mercer County, Ohio</t>
+  </si>
+  <si>
+    <t>Miami County, Ohio</t>
+  </si>
+  <si>
+    <t>Monroe County, Ohio</t>
+  </si>
+  <si>
+    <t>Montgomery County, Ohio</t>
+  </si>
+  <si>
+    <t>Morgan County, Ohio</t>
+  </si>
+  <si>
+    <t>Morrow County, Ohio</t>
+  </si>
+  <si>
+    <t>Muskingum County, Ohio</t>
+  </si>
+  <si>
+    <t>Noble County, Ohio</t>
+  </si>
+  <si>
+    <t>Ottawa County, Ohio</t>
+  </si>
+  <si>
+    <t>Paulding County, Ohio</t>
+  </si>
+  <si>
+    <t>Perry County, Ohio</t>
+  </si>
+  <si>
+    <t>Pickaway County, Ohio</t>
+  </si>
+  <si>
+    <t>Pike County, Ohio</t>
+  </si>
+  <si>
+    <t>Portage County, Ohio</t>
+  </si>
+  <si>
+    <t>Preble County, Ohio</t>
+  </si>
+  <si>
+    <t>Putnam County, Ohio</t>
+  </si>
+  <si>
+    <t>Richland County, Ohio</t>
+  </si>
+  <si>
+    <t>Ross County, Ohio</t>
+  </si>
+  <si>
+    <t>Sandusky County, Ohio</t>
+  </si>
+  <si>
+    <t>Scioto County, Ohio</t>
+  </si>
+  <si>
+    <t>Seneca County, Ohio</t>
+  </si>
+  <si>
+    <t>Shelby County, Ohio</t>
+  </si>
+  <si>
+    <t>Stark County, Ohio</t>
+  </si>
+  <si>
+    <t>Summit County, Ohio</t>
+  </si>
+  <si>
+    <t>Trumbull County, Ohio</t>
+  </si>
+  <si>
+    <t>Tuscarawas County, Ohio</t>
+  </si>
+  <si>
+    <t>Union County, Ohio</t>
+  </si>
+  <si>
+    <t>Van Wert County, Ohio</t>
+  </si>
+  <si>
+    <t>Vinton County, Ohio</t>
+  </si>
+  <si>
+    <t>Warren County, Ohio</t>
+  </si>
+  <si>
+    <t>Washington County, Ohio</t>
+  </si>
+  <si>
+    <t>Wayne County, Ohio</t>
+  </si>
+  <si>
+    <t>Williams County, Ohio</t>
+  </si>
+  <si>
+    <t>Wood County, Ohio</t>
+  </si>
+  <si>
+    <t>Wyandot County, Ohio</t>
+  </si>
+  <si>
+    <t>https://factfinder.census.gov/faces/tableservices/jsf/pages/productview.xhtml?pid=ACS_10_5YR_B19301&amp;prodType=table</t>
+  </si>
+  <si>
+    <t>https://factfinder.census.gov/faces/tableservices/jsf/pages/productview.xhtml?pid=DEC_00_SF3_P082&amp;prodType=table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1727,24 +2625,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4162,7 +5057,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7150,10 +8045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B23DF3-5912-DB45-94D5-24C26AFDA966}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3:I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7212,90 +8107,234 @@
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="8">
-        <v>24011</v>
-      </c>
-      <c r="C3" s="9">
+        <v>662</v>
+      </c>
+      <c r="B3">
+        <v>16704</v>
+      </c>
+      <c r="C3" s="8">
         <v>33625</v>
+      </c>
+      <c r="D3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3">
+        <v>14931</v>
+      </c>
+      <c r="F3">
+        <v>17244</v>
+      </c>
+      <c r="G3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H3">
+        <v>14515</v>
+      </c>
+      <c r="I3">
+        <v>27330</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="8">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="9">
+        <v>663</v>
+      </c>
+      <c r="B4">
+        <v>21544</v>
+      </c>
+      <c r="C4" s="8">
         <v>331849</v>
+      </c>
+      <c r="D4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4">
+        <v>14506</v>
+      </c>
+      <c r="F4">
+        <v>17800</v>
+      </c>
+      <c r="G4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H4">
+        <v>17511</v>
+      </c>
+      <c r="I4">
+        <v>108473</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="8">
-        <v>31182</v>
-      </c>
-      <c r="C5" s="9">
+        <v>664</v>
+      </c>
+      <c r="B5">
+        <v>21536</v>
+      </c>
+      <c r="C5" s="8">
         <v>71435</v>
+      </c>
+      <c r="D5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5">
+        <v>18621</v>
+      </c>
+      <c r="F5">
+        <v>19111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H5">
+        <v>17308</v>
+      </c>
+      <c r="I5">
+        <v>52523</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="8">
-        <v>26084</v>
-      </c>
-      <c r="C6" s="9">
+        <v>665</v>
+      </c>
+      <c r="B6">
+        <v>17220</v>
+      </c>
+      <c r="C6" s="8">
         <v>9421</v>
+      </c>
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6">
+        <v>19035</v>
+      </c>
+      <c r="F6">
+        <v>8286</v>
+      </c>
+      <c r="G6" t="s">
+        <v>757</v>
+      </c>
+      <c r="H6">
+        <v>16814</v>
+      </c>
+      <c r="I6">
+        <v>102728</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="8">
-        <v>22196</v>
-      </c>
-      <c r="C7" s="9">
+        <v>666</v>
+      </c>
+      <c r="B7">
+        <v>16543</v>
+      </c>
+      <c r="C7" s="8">
         <v>14048</v>
+      </c>
+      <c r="D7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E7">
+        <v>16816</v>
+      </c>
+      <c r="F7">
+        <v>38033</v>
+      </c>
+      <c r="G7" t="s">
+        <v>758</v>
+      </c>
+      <c r="H7">
+        <v>14171</v>
+      </c>
+      <c r="I7">
+        <v>62223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="8">
-        <v>38479</v>
-      </c>
-      <c r="C8" s="9">
+        <v>667</v>
+      </c>
+      <c r="B8">
+        <v>24182</v>
+      </c>
+      <c r="C8" s="8">
         <v>46107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8">
+        <v>15326</v>
+      </c>
+      <c r="F8">
+        <v>11085</v>
+      </c>
+      <c r="G8" t="s">
+        <v>759</v>
+      </c>
+      <c r="H8">
+        <v>19593</v>
+      </c>
+      <c r="I8">
+        <v>46611</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="8">
-        <v>30059</v>
-      </c>
-      <c r="C9" s="9">
+        <v>668</v>
+      </c>
+      <c r="B9">
+        <v>20548</v>
+      </c>
+      <c r="C9" s="8">
         <v>14957</v>
+      </c>
+      <c r="D9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E9">
+        <v>11526</v>
+      </c>
+      <c r="F9">
+        <v>30060</v>
+      </c>
+      <c r="G9" t="s">
+        <v>760</v>
+      </c>
+      <c r="H9">
+        <v>16221</v>
+      </c>
+      <c r="I9">
+        <v>70226</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="8">
-        <v>28372</v>
-      </c>
-      <c r="C10" s="9">
+        <v>669</v>
+      </c>
+      <c r="B10">
+        <v>19436</v>
+      </c>
+      <c r="C10" s="8">
         <v>20165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10">
+        <v>23535</v>
+      </c>
+      <c r="F10">
+        <v>85991</v>
+      </c>
+      <c r="G10" t="s">
+        <v>761</v>
+      </c>
+      <c r="H10">
+        <v>17100</v>
+      </c>
+      <c r="I10">
+        <v>42285</v>
       </c>
       <c r="K10" t="s">
         <v>529</v>
@@ -7303,938 +8342,2728 @@
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="8">
-        <v>25264</v>
-      </c>
-      <c r="C11" s="9">
+        <v>670</v>
+      </c>
+      <c r="B11">
+        <v>18892</v>
+      </c>
+      <c r="C11" s="8">
         <v>40930</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11">
+        <v>18335</v>
+      </c>
+      <c r="F11">
+        <v>19360</v>
+      </c>
+      <c r="G11" t="s">
+        <v>762</v>
+      </c>
+      <c r="H11">
+        <v>22076</v>
+      </c>
+      <c r="I11">
+        <v>332807</v>
       </c>
       <c r="K11" t="s">
         <v>535</v>
       </c>
       <c r="L11" t="s">
-        <v>541</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="8">
-        <v>26810</v>
-      </c>
-      <c r="C12" s="9">
+        <v>671</v>
+      </c>
+      <c r="B12">
+        <v>19936</v>
+      </c>
+      <c r="C12" s="8">
         <v>96472</v>
+      </c>
+      <c r="D12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12">
+        <v>18212</v>
+      </c>
+      <c r="F12">
+        <v>49752</v>
+      </c>
+      <c r="G12" t="s">
+        <v>763</v>
+      </c>
+      <c r="H12">
+        <v>16701</v>
+      </c>
+      <c r="I12">
+        <v>28836</v>
       </c>
       <c r="K12" t="s">
         <v>539</v>
       </c>
+      <c r="L12" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="8">
-        <v>23791</v>
-      </c>
-      <c r="C13" s="9">
+        <v>672</v>
+      </c>
+      <c r="B13">
+        <v>16364</v>
+      </c>
+      <c r="C13" s="8">
         <v>26556</v>
+      </c>
+      <c r="D13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E13">
+        <v>18288</v>
+      </c>
+      <c r="F13">
+        <v>27697</v>
+      </c>
+      <c r="G13" t="s">
+        <v>764</v>
+      </c>
+      <c r="H13">
+        <v>19542</v>
+      </c>
+      <c r="I13">
+        <v>38890</v>
       </c>
       <c r="K13" t="s">
         <v>540</v>
       </c>
+      <c r="L13" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="8">
-        <v>22821</v>
-      </c>
-      <c r="C14" s="9">
+        <v>673</v>
+      </c>
+      <c r="B14">
+        <v>17862</v>
+      </c>
+      <c r="C14" s="8">
         <v>33866</v>
+      </c>
+      <c r="D14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E14">
+        <v>16478</v>
+      </c>
+      <c r="F14">
+        <v>8279</v>
+      </c>
+      <c r="G14" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14">
+        <v>19501</v>
+      </c>
+      <c r="I14">
+        <v>144742</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="8">
-        <v>20547</v>
-      </c>
-      <c r="C15" s="9">
+        <v>674</v>
+      </c>
+      <c r="B15">
+        <v>15926</v>
+      </c>
+      <c r="C15" s="8">
         <v>10743</v>
+      </c>
+      <c r="D15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E15">
+        <v>11044</v>
+      </c>
+      <c r="F15">
+        <v>16100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>766</v>
+      </c>
+      <c r="H15">
+        <v>22370</v>
+      </c>
+      <c r="I15">
+        <v>177977</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="8">
-        <v>23927</v>
-      </c>
-      <c r="C16" s="9">
+        <v>675</v>
+      </c>
+      <c r="B16">
+        <v>16015</v>
+      </c>
+      <c r="C16" s="8">
         <v>29820</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>555</v>
+      </c>
+      <c r="E16">
+        <v>15402</v>
+      </c>
+      <c r="F16">
+        <v>18648</v>
+      </c>
+      <c r="G16" t="s">
+        <v>767</v>
+      </c>
+      <c r="H16">
+        <v>18462</v>
+      </c>
+      <c r="I16">
+        <v>40543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="8">
-        <v>27798</v>
-      </c>
-      <c r="C17" s="9">
+        <v>676</v>
+      </c>
+      <c r="B17">
+        <v>20431</v>
+      </c>
+      <c r="C17" s="8">
         <v>46109</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>556</v>
+      </c>
+      <c r="E17">
+        <v>18339</v>
+      </c>
+      <c r="F17">
+        <v>61236</v>
+      </c>
+      <c r="G17" t="s">
+        <v>768</v>
+      </c>
+      <c r="H17">
+        <v>16655</v>
+      </c>
+      <c r="I17">
+        <v>112075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="8">
-        <v>26681</v>
-      </c>
-      <c r="C18" s="9">
+        <v>677</v>
+      </c>
+      <c r="B18">
+        <v>18582</v>
+      </c>
+      <c r="C18" s="8">
         <v>24555</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18">
+        <v>14617</v>
+      </c>
+      <c r="F18">
+        <v>13010</v>
+      </c>
+      <c r="G18" t="s">
+        <v>769</v>
+      </c>
+      <c r="H18">
+        <v>16364</v>
+      </c>
+      <c r="I18">
+        <v>36655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>536</v>
-      </c>
-      <c r="B19" s="8">
-        <v>26048</v>
-      </c>
-      <c r="C19" s="9">
+        <v>678</v>
+      </c>
+      <c r="B19">
+        <v>19448</v>
+      </c>
+      <c r="C19" s="8">
         <v>40285</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19">
+        <v>16264</v>
+      </c>
+      <c r="F19">
+        <v>13060</v>
+      </c>
+      <c r="G19" t="s">
+        <v>770</v>
+      </c>
+      <c r="H19">
+        <v>17466</v>
+      </c>
+      <c r="I19">
+        <v>46966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="8">
-        <v>25147</v>
-      </c>
-      <c r="C20" s="9">
+        <v>679</v>
+      </c>
+      <c r="B20">
+        <v>19233</v>
+      </c>
+      <c r="C20" s="8">
         <v>118769</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>559</v>
+      </c>
+      <c r="E20">
+        <v>16566</v>
+      </c>
+      <c r="F20">
+        <v>34177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>771</v>
+      </c>
+      <c r="H20">
+        <v>22272</v>
+      </c>
+      <c r="I20">
+        <v>1393978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="8">
-        <v>31531</v>
-      </c>
-      <c r="C21" s="9">
+        <v>680</v>
+      </c>
+      <c r="B21">
+        <v>20225</v>
+      </c>
+      <c r="C21" s="8">
         <v>39674</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E21">
+        <v>20637</v>
+      </c>
+      <c r="F21">
+        <v>88616</v>
+      </c>
+      <c r="G21" t="s">
+        <v>772</v>
+      </c>
+      <c r="H21">
+        <v>18670</v>
+      </c>
+      <c r="I21">
+        <v>53309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="8">
-        <v>27540</v>
-      </c>
-      <c r="C22" s="9">
+        <v>681</v>
+      </c>
+      <c r="B22">
+        <v>20250</v>
+      </c>
+      <c r="C22" s="8">
         <v>182791</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E22">
+        <v>16276</v>
+      </c>
+      <c r="F22">
+        <v>5351</v>
+      </c>
+      <c r="G22" t="s">
+        <v>773</v>
+      </c>
+      <c r="H22">
+        <v>19667</v>
+      </c>
+      <c r="I22">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="8">
-        <v>25284</v>
-      </c>
-      <c r="C23" s="9">
+        <v>682</v>
+      </c>
+      <c r="B23">
+        <v>18624</v>
+      </c>
+      <c r="C23" s="8">
         <v>25588</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>562</v>
+      </c>
+      <c r="E23">
+        <v>17057</v>
+      </c>
+      <c r="F23">
+        <v>10155</v>
+      </c>
+      <c r="G23" t="s">
+        <v>774</v>
+      </c>
+      <c r="H23">
+        <v>31600</v>
+      </c>
+      <c r="I23">
+        <v>109989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="8">
-        <v>31038</v>
-      </c>
-      <c r="C24" s="9">
+        <v>683</v>
+      </c>
+      <c r="B24">
+        <v>21852</v>
+      </c>
+      <c r="C24" s="8">
         <v>70823</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24">
+        <v>13442</v>
+      </c>
+      <c r="F24">
+        <v>26889</v>
+      </c>
+      <c r="G24" t="s">
+        <v>775</v>
+      </c>
+      <c r="H24">
+        <v>21530</v>
+      </c>
+      <c r="I24">
+        <v>79551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="8">
-        <v>24336</v>
-      </c>
-      <c r="C25" s="9">
+        <v>684</v>
+      </c>
+      <c r="B25">
+        <v>17779</v>
+      </c>
+      <c r="C25" s="8">
         <v>17954</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E25">
+        <v>12867</v>
+      </c>
+      <c r="F25">
+        <v>15447</v>
+      </c>
+      <c r="G25" t="s">
+        <v>776</v>
+      </c>
+      <c r="H25">
+        <v>21671</v>
+      </c>
+      <c r="I25">
+        <v>122759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="8">
-        <v>26677</v>
-      </c>
-      <c r="C26" s="9">
+        <v>685</v>
+      </c>
+      <c r="B26">
+        <v>18624</v>
+      </c>
+      <c r="C26" s="8">
         <v>22151</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>565</v>
+      </c>
+      <c r="E26">
+        <v>14611</v>
+      </c>
+      <c r="F26">
+        <v>72265</v>
+      </c>
+      <c r="G26" t="s">
+        <v>777</v>
+      </c>
+      <c r="H26">
+        <v>18063</v>
+      </c>
+      <c r="I26">
+        <v>28433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="8">
-        <v>23813</v>
-      </c>
-      <c r="C27" s="9">
+        <v>686</v>
+      </c>
+      <c r="B27">
+        <v>17950</v>
+      </c>
+      <c r="C27" s="8">
         <v>20511</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E27">
+        <v>19170</v>
+      </c>
+      <c r="F27">
+        <v>33144</v>
+      </c>
+      <c r="G27" t="s">
+        <v>778</v>
+      </c>
+      <c r="H27">
+        <v>23059</v>
+      </c>
+      <c r="I27">
+        <v>1068978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="8">
-        <v>24497</v>
-      </c>
-      <c r="C28" s="9">
+        <v>687</v>
+      </c>
+      <c r="B28">
+        <v>18169</v>
+      </c>
+      <c r="C28" s="8">
         <v>32500</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E28">
+        <v>9716</v>
+      </c>
+      <c r="F28">
+        <v>24556</v>
+      </c>
+      <c r="G28" t="s">
+        <v>779</v>
+      </c>
+      <c r="H28">
+        <v>18999</v>
+      </c>
+      <c r="I28">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="8">
+        <v>688</v>
+      </c>
+      <c r="B29">
+        <v>18003</v>
+      </c>
+      <c r="C29" s="8">
+        <v>73403</v>
+      </c>
+      <c r="D29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E29">
+        <v>13286</v>
+      </c>
+      <c r="F29">
+        <v>9634</v>
+      </c>
+      <c r="G29" t="s">
+        <v>780</v>
+      </c>
+      <c r="H29">
+        <v>15183</v>
+      </c>
+      <c r="I29">
+        <v>31069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>689</v>
+      </c>
+      <c r="B30">
+        <v>16834</v>
+      </c>
+      <c r="C30" s="8">
+        <v>33157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>569</v>
+      </c>
+      <c r="E30">
+        <v>15262</v>
+      </c>
+      <c r="F30">
+        <v>9384</v>
+      </c>
+      <c r="G30" t="s">
+        <v>781</v>
+      </c>
+      <c r="H30">
+        <v>27944</v>
+      </c>
+      <c r="I30">
+        <v>90895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>690</v>
+      </c>
+      <c r="B31">
+        <v>33109</v>
+      </c>
+      <c r="C31" s="8">
+        <v>182740</v>
+      </c>
+      <c r="D31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E31">
+        <v>12643</v>
+      </c>
+      <c r="F31">
+        <v>7147</v>
+      </c>
+      <c r="G31" t="s">
+        <v>782</v>
+      </c>
+      <c r="H31">
+        <v>23057</v>
+      </c>
+      <c r="I31">
+        <v>147886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>691</v>
+      </c>
+      <c r="B32">
+        <v>24966</v>
+      </c>
+      <c r="C32" s="8">
+        <v>55391</v>
+      </c>
+      <c r="D32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E32">
+        <v>18739</v>
+      </c>
+      <c r="F32">
+        <v>91545</v>
+      </c>
+      <c r="G32" t="s">
+        <v>783</v>
+      </c>
+      <c r="H32">
+        <v>15542</v>
+      </c>
+      <c r="I32">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>692</v>
+      </c>
+      <c r="B33">
+        <v>19643</v>
+      </c>
+      <c r="C33" s="8">
+        <v>34325</v>
+      </c>
+      <c r="D33" t="s">
+        <v>572</v>
+      </c>
+      <c r="E33">
+        <v>14480</v>
+      </c>
+      <c r="F33">
+        <v>11644</v>
+      </c>
+      <c r="G33" t="s">
+        <v>784</v>
+      </c>
+      <c r="H33">
+        <v>24053</v>
+      </c>
+      <c r="I33">
+        <v>845303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>693</v>
+      </c>
+      <c r="B34">
+        <v>23129</v>
+      </c>
+      <c r="C34" s="8">
+        <v>104093</v>
+      </c>
+      <c r="D34" t="s">
+        <v>573</v>
+      </c>
+      <c r="E34">
+        <v>12067</v>
+      </c>
+      <c r="F34">
+        <v>6748</v>
+      </c>
+      <c r="G34" t="s">
+        <v>785</v>
+      </c>
+      <c r="H34">
+        <v>20991</v>
+      </c>
+      <c r="I34">
+        <v>71295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>694</v>
+      </c>
+      <c r="B35">
+        <v>19355</v>
+      </c>
+      <c r="C35" s="8">
+        <v>48508</v>
+      </c>
+      <c r="D35" t="s">
+        <v>574</v>
+      </c>
+      <c r="E35">
+        <v>12285</v>
+      </c>
+      <c r="F35">
+        <v>15307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>786</v>
+      </c>
+      <c r="H35">
+        <v>16200</v>
+      </c>
+      <c r="I35">
+        <v>31945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>695</v>
+      </c>
+      <c r="B36">
+        <v>22049</v>
+      </c>
+      <c r="C36" s="8">
+        <v>84964</v>
+      </c>
+      <c r="D36" t="s">
+        <v>575</v>
+      </c>
+      <c r="E36">
+        <v>23109</v>
+      </c>
+      <c r="F36">
+        <v>260512</v>
+      </c>
+      <c r="G36" t="s">
+        <v>787</v>
+      </c>
+      <c r="H36">
+        <v>16479</v>
+      </c>
+      <c r="I36">
+        <v>15856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>696</v>
+      </c>
+      <c r="B37">
+        <v>19480</v>
+      </c>
+      <c r="C37" s="8">
+        <v>38075</v>
+      </c>
+      <c r="D37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E37">
+        <v>14214</v>
+      </c>
+      <c r="F37">
+        <v>13792</v>
+      </c>
+      <c r="G37" t="s">
+        <v>788</v>
+      </c>
+      <c r="H37">
+        <v>18667</v>
+      </c>
+      <c r="I37">
+        <v>29210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>697</v>
+      </c>
+      <c r="B38">
+        <v>18400</v>
+      </c>
+      <c r="C38" s="8">
+        <v>41335</v>
+      </c>
+      <c r="D38" t="s">
+        <v>577</v>
+      </c>
+      <c r="E38">
+        <v>12442</v>
+      </c>
+      <c r="F38">
+        <v>42441</v>
+      </c>
+      <c r="G38" t="s">
+        <v>789</v>
+      </c>
+      <c r="H38">
+        <v>16521</v>
+      </c>
+      <c r="I38">
+        <v>40875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>698</v>
+      </c>
+      <c r="B39">
+        <v>19012</v>
+      </c>
+      <c r="C39" s="8">
+        <v>30043</v>
+      </c>
+      <c r="D39" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39">
+        <v>21229</v>
+      </c>
+      <c r="F39">
+        <v>47687</v>
+      </c>
+      <c r="G39" t="s">
+        <v>790</v>
+      </c>
+      <c r="H39">
+        <v>16095</v>
+      </c>
+      <c r="I39">
+        <v>28241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>699</v>
+      </c>
+      <c r="B40">
+        <v>16686</v>
+      </c>
+      <c r="C40" s="8">
+        <v>21806</v>
+      </c>
+      <c r="D40" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40">
+        <v>14309</v>
+      </c>
+      <c r="F40">
+        <v>7752</v>
+      </c>
+      <c r="G40" t="s">
+        <v>791</v>
+      </c>
+      <c r="H40">
+        <v>14197</v>
+      </c>
+      <c r="I40">
+        <v>38943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>700</v>
+      </c>
+      <c r="B41">
+        <v>17412</v>
+      </c>
+      <c r="C41" s="8">
+        <v>31705</v>
+      </c>
+      <c r="D41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E41">
+        <v>16416</v>
+      </c>
+      <c r="F41">
+        <v>7870</v>
+      </c>
+      <c r="G41" t="s">
+        <v>792</v>
+      </c>
+      <c r="H41">
+        <v>18133</v>
+      </c>
+      <c r="I41">
+        <v>59487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>701</v>
+      </c>
+      <c r="B42">
+        <v>17059</v>
+      </c>
+      <c r="C42" s="8">
+        <v>27554</v>
+      </c>
+      <c r="D42" t="s">
+        <v>581</v>
+      </c>
+      <c r="E42">
+        <v>16915</v>
+      </c>
+      <c r="F42">
+        <v>14792</v>
+      </c>
+      <c r="G42" t="s">
+        <v>793</v>
+      </c>
+      <c r="H42">
+        <v>14789</v>
+      </c>
+      <c r="I42">
+        <v>32641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>702</v>
+      </c>
+      <c r="B43">
+        <v>22976</v>
+      </c>
+      <c r="C43" s="8">
+        <v>115209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>582</v>
+      </c>
+      <c r="E43">
+        <v>16776</v>
+      </c>
+      <c r="F43">
+        <v>22384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>794</v>
+      </c>
+      <c r="H43">
+        <v>16476</v>
+      </c>
+      <c r="I43">
+        <v>73894</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B44">
+        <v>16085</v>
+      </c>
+      <c r="C44" s="8">
+        <v>39256</v>
+      </c>
+      <c r="D44" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44">
+        <v>16834</v>
+      </c>
+      <c r="F44">
+        <v>37028</v>
+      </c>
+      <c r="G44" t="s">
+        <v>795</v>
+      </c>
+      <c r="H44">
+        <v>17695</v>
+      </c>
+      <c r="I44">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>704</v>
+      </c>
+      <c r="B45">
+        <v>19806</v>
+      </c>
+      <c r="C45" s="8">
+        <v>74057</v>
+      </c>
+      <c r="D45" t="s">
+        <v>584</v>
+      </c>
+      <c r="E45">
+        <v>14759</v>
+      </c>
+      <c r="F45">
+        <v>24053</v>
+      </c>
+      <c r="G45" t="s">
+        <v>796</v>
+      </c>
+      <c r="H45">
+        <v>23160</v>
+      </c>
+      <c r="I45">
+        <v>227511</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>705</v>
+      </c>
+      <c r="B46">
+        <v>16481</v>
+      </c>
+      <c r="C46" s="8">
+        <v>34909</v>
+      </c>
+      <c r="D46" t="s">
+        <v>585</v>
+      </c>
+      <c r="E46">
+        <v>16107</v>
+      </c>
+      <c r="F46">
+        <v>11518</v>
+      </c>
+      <c r="G46" t="s">
+        <v>797</v>
+      </c>
+      <c r="H46">
+        <v>14678</v>
+      </c>
+      <c r="I46">
+        <v>62319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>706</v>
+      </c>
+      <c r="B47">
+        <v>19639</v>
+      </c>
+      <c r="C47" s="8">
+        <v>484564</v>
+      </c>
+      <c r="D47" t="s">
+        <v>586</v>
+      </c>
+      <c r="E47">
+        <v>17137</v>
+      </c>
+      <c r="F47">
+        <v>36891</v>
+      </c>
+      <c r="G47" t="s">
+        <v>798</v>
+      </c>
+      <c r="H47">
+        <v>20581</v>
+      </c>
+      <c r="I47">
+        <v>145491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>707</v>
+      </c>
+      <c r="B48">
+        <v>18913</v>
+      </c>
+      <c r="C48" s="8">
+        <v>110106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>587</v>
+      </c>
+      <c r="E48">
+        <v>16623</v>
+      </c>
+      <c r="F48">
+        <v>8392</v>
+      </c>
+      <c r="G48" t="s">
+        <v>799</v>
+      </c>
+      <c r="H48">
+        <v>18984</v>
+      </c>
+      <c r="I48">
+        <v>46005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>708</v>
+      </c>
+      <c r="B49">
+        <v>17653</v>
+      </c>
+      <c r="C49" s="8">
+        <v>45922</v>
+      </c>
+      <c r="D49" t="s">
+        <v>588</v>
+      </c>
+      <c r="E49">
+        <v>17487</v>
+      </c>
+      <c r="F49">
+        <v>94174</v>
+      </c>
+      <c r="G49" t="s">
+        <v>800</v>
+      </c>
+      <c r="H49">
+        <v>21054</v>
+      </c>
+      <c r="I49">
+        <v>284664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>709</v>
+      </c>
+      <c r="B50">
+        <v>20090</v>
+      </c>
+      <c r="C50" s="8">
+        <v>133358</v>
+      </c>
+      <c r="D50" t="s">
+        <v>589</v>
+      </c>
+      <c r="E50">
+        <v>11585</v>
+      </c>
+      <c r="F50">
+        <v>33202</v>
+      </c>
+      <c r="G50" t="s">
+        <v>801</v>
+      </c>
+      <c r="H50">
+        <v>20518</v>
+      </c>
+      <c r="I50">
+        <v>455054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>710</v>
+      </c>
+      <c r="B51">
+        <v>21789</v>
+      </c>
+      <c r="C51" s="8">
+        <v>860454</v>
+      </c>
+      <c r="D51" t="s">
+        <v>590</v>
+      </c>
+      <c r="E51">
+        <v>17478</v>
+      </c>
+      <c r="F51">
+        <v>17983</v>
+      </c>
+      <c r="G51" t="s">
+        <v>802</v>
+      </c>
+      <c r="H51">
+        <v>18721</v>
+      </c>
+      <c r="I51">
+        <v>40213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>711</v>
+      </c>
+      <c r="B52">
+        <v>18427</v>
+      </c>
+      <c r="C52" s="8">
+        <v>45128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>591</v>
+      </c>
+      <c r="E52">
+        <v>13495</v>
+      </c>
+      <c r="F52">
+        <v>17445</v>
+      </c>
+      <c r="G52" t="s">
+        <v>803</v>
+      </c>
+      <c r="H52">
+        <v>18818</v>
+      </c>
+      <c r="I52">
+        <v>257555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>712</v>
+      </c>
+      <c r="B53">
+        <v>17054</v>
+      </c>
+      <c r="C53" s="8">
+        <v>10369</v>
+      </c>
+      <c r="D53" t="s">
+        <v>592</v>
+      </c>
+      <c r="E53">
+        <v>18470</v>
+      </c>
+      <c r="F53">
+        <v>44829</v>
+      </c>
+      <c r="G53" t="s">
+        <v>804</v>
+      </c>
+      <c r="H53">
+        <v>18255</v>
+      </c>
+      <c r="I53">
+        <v>66217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>713</v>
+      </c>
+      <c r="B54">
+        <v>17726</v>
+      </c>
+      <c r="C54" s="8">
+        <v>36082</v>
+      </c>
+      <c r="D54" t="s">
+        <v>593</v>
+      </c>
+      <c r="E54">
+        <v>17846</v>
+      </c>
+      <c r="F54">
+        <v>15060</v>
+      </c>
+      <c r="G54" t="s">
+        <v>805</v>
+      </c>
+      <c r="H54">
+        <v>24251</v>
+      </c>
+      <c r="I54">
+        <v>151095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>714</v>
+      </c>
+      <c r="B55">
+        <v>18534</v>
+      </c>
+      <c r="C55" s="8">
+        <v>120563</v>
+      </c>
+      <c r="D55" t="s">
+        <v>594</v>
+      </c>
+      <c r="E55">
+        <v>17279</v>
+      </c>
+      <c r="F55">
+        <v>5262</v>
+      </c>
+      <c r="G55" t="s">
+        <v>806</v>
+      </c>
+      <c r="H55">
+        <v>13848</v>
+      </c>
+      <c r="I55">
         <v>23072</v>
       </c>
-      <c r="C29" s="9">
-        <v>73403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" s="8">
-        <v>22203</v>
-      </c>
-      <c r="C30" s="9">
-        <v>33157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" s="8">
-        <v>45817</v>
-      </c>
-      <c r="C31" s="9">
-        <v>182740</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" s="8">
-        <v>34659</v>
-      </c>
-      <c r="C32" s="9">
-        <v>55391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="8">
-        <v>26429</v>
-      </c>
-      <c r="C33" s="9">
-        <v>34325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34" s="8">
-        <v>32008</v>
-      </c>
-      <c r="C34" s="9">
-        <v>104093</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="8">
-        <v>25691</v>
-      </c>
-      <c r="C35" s="9">
-        <v>48508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B36" s="8">
-        <v>28327</v>
-      </c>
-      <c r="C36" s="9">
-        <v>84964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="8">
-        <v>26057</v>
-      </c>
-      <c r="C37" s="9">
-        <v>38075</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>259</v>
-      </c>
-      <c r="B38" s="8">
-        <v>23925</v>
-      </c>
-      <c r="C38" s="9">
-        <v>41335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39" s="8">
-        <v>26261</v>
-      </c>
-      <c r="C39" s="9">
-        <v>30043</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B40" s="8">
-        <v>21571</v>
-      </c>
-      <c r="C40" s="9">
-        <v>21806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41" s="8">
-        <v>22386</v>
-      </c>
-      <c r="C41" s="9">
-        <v>31705</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>263</v>
-      </c>
-      <c r="B42" s="8">
-        <v>22304</v>
-      </c>
-      <c r="C42" s="9">
-        <v>27554</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" s="8">
-        <v>30761</v>
-      </c>
-      <c r="C43" s="9">
-        <v>115209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="8">
-        <v>24452</v>
-      </c>
-      <c r="C44" s="9">
-        <v>39256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>266</v>
-      </c>
-      <c r="B45" s="8">
-        <v>27297</v>
-      </c>
-      <c r="C45" s="9">
-        <v>74057</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>537</v>
-      </c>
-      <c r="B46" s="8">
-        <v>20085</v>
-      </c>
-      <c r="C46" s="9">
-        <v>34909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="8">
-        <v>27088</v>
-      </c>
-      <c r="C47" s="9">
-        <v>484564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>538</v>
-      </c>
-      <c r="B48" s="8">
-        <v>25268</v>
-      </c>
-      <c r="C48" s="9">
-        <v>110106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>270</v>
-      </c>
-      <c r="B49" s="8">
-        <v>24407</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45922</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" s="8">
-        <v>25500</v>
-      </c>
-      <c r="C50" s="9">
-        <v>133358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>272</v>
-      </c>
-      <c r="B51" s="8">
-        <v>32271</v>
-      </c>
-      <c r="C51" s="9">
-        <v>860454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="8">
-        <v>24842</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="8">
-        <v>23831</v>
-      </c>
-      <c r="C53" s="9">
-        <v>10369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>275</v>
-      </c>
-      <c r="B54" s="8">
-        <v>22344</v>
-      </c>
-      <c r="C54" s="9">
-        <v>36082</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>276</v>
-      </c>
-      <c r="B55" s="8">
-        <v>24460</v>
-      </c>
-      <c r="C55" s="9">
-        <v>120563</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="8">
-        <v>25052</v>
-      </c>
-      <c r="C56" s="9">
+        <v>715</v>
+      </c>
+      <c r="B56">
+        <v>18938</v>
+      </c>
+      <c r="C56" s="8">
         <v>37629</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>595</v>
+      </c>
+      <c r="E56">
+        <v>17382</v>
+      </c>
+      <c r="F56">
+        <v>46519</v>
+      </c>
+      <c r="G56" t="s">
+        <v>807</v>
+      </c>
+      <c r="H56">
+        <v>18531</v>
+      </c>
+      <c r="I56">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>278</v>
-      </c>
-      <c r="B57" s="8">
-        <v>27276</v>
-      </c>
-      <c r="C57" s="9">
+        <v>716</v>
+      </c>
+      <c r="B57">
+        <v>20657</v>
+      </c>
+      <c r="C57" s="8">
         <v>66689</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>596</v>
+      </c>
+      <c r="E57">
+        <v>10711</v>
+      </c>
+      <c r="F57">
+        <v>13495</v>
+      </c>
+      <c r="G57" t="s">
+        <v>808</v>
+      </c>
+      <c r="H57">
+        <v>21669</v>
+      </c>
+      <c r="I57">
+        <v>98868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>279</v>
-      </c>
-      <c r="B58" s="8">
-        <v>22961</v>
-      </c>
-      <c r="C58" s="9">
+        <v>717</v>
+      </c>
+      <c r="B58">
+        <v>17755</v>
+      </c>
+      <c r="C58" s="8">
         <v>14566</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>597</v>
+      </c>
+      <c r="E58">
+        <v>22352</v>
+      </c>
+      <c r="F58">
+        <v>693604</v>
+      </c>
+      <c r="G58" t="s">
+        <v>809</v>
+      </c>
+      <c r="H58">
+        <v>15096</v>
+      </c>
+      <c r="I58">
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>280</v>
-      </c>
-      <c r="B59" s="8">
-        <v>23754</v>
-      </c>
-      <c r="C59" s="9">
+        <v>718</v>
+      </c>
+      <c r="B59">
+        <v>17896</v>
+      </c>
+      <c r="C59" s="8">
         <v>46275</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>598</v>
+      </c>
+      <c r="E59">
+        <v>18842</v>
+      </c>
+      <c r="F59">
+        <v>39041</v>
+      </c>
+      <c r="G59" t="s">
+        <v>810</v>
+      </c>
+      <c r="H59">
+        <v>21743</v>
+      </c>
+      <c r="I59">
+        <v>559062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="8">
-        <v>24685</v>
-      </c>
-      <c r="C60" s="9">
+        <v>719</v>
+      </c>
+      <c r="B60">
+        <v>19627</v>
+      </c>
+      <c r="C60" s="8">
         <v>5623</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>599</v>
+      </c>
+      <c r="E60">
+        <v>14051</v>
+      </c>
+      <c r="F60">
+        <v>23445</v>
+      </c>
+      <c r="G60" t="s">
+        <v>811</v>
+      </c>
+      <c r="H60">
+        <v>13967</v>
+      </c>
+      <c r="I60">
+        <v>14897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B61" s="8">
-        <v>22125</v>
-      </c>
-      <c r="C61" s="9">
+        <v>720</v>
+      </c>
+      <c r="B61">
+        <v>16717</v>
+      </c>
+      <c r="C61" s="8">
         <v>19306</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>600</v>
+      </c>
+      <c r="E61">
+        <v>22085</v>
+      </c>
+      <c r="F61">
+        <v>151464</v>
+      </c>
+      <c r="G61" t="s">
+        <v>812</v>
+      </c>
+      <c r="H61">
+        <v>17830</v>
+      </c>
+      <c r="I61">
+        <v>31628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>283</v>
-      </c>
-      <c r="B62" s="8">
-        <v>22073</v>
-      </c>
-      <c r="C62" s="9">
+        <v>721</v>
+      </c>
+      <c r="B62">
+        <v>16884</v>
+      </c>
+      <c r="C62" s="8">
         <v>21786</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>601</v>
+      </c>
+      <c r="E62">
+        <v>11297</v>
+      </c>
+      <c r="F62">
+        <v>17649</v>
+      </c>
+      <c r="G62" t="s">
+        <v>813</v>
+      </c>
+      <c r="H62">
+        <v>17533</v>
+      </c>
+      <c r="I62">
+        <v>84585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>284</v>
-      </c>
-      <c r="B63" s="8">
-        <v>21581</v>
-      </c>
-      <c r="C63" s="9">
+        <v>722</v>
+      </c>
+      <c r="B63">
+        <v>16986</v>
+      </c>
+      <c r="C63" s="8">
         <v>17241</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>602</v>
+      </c>
+      <c r="E63">
+        <v>10660</v>
+      </c>
+      <c r="F63">
+        <v>31795</v>
+      </c>
+      <c r="G63" t="s">
+        <v>814</v>
+      </c>
+      <c r="H63">
+        <v>14100</v>
+      </c>
+      <c r="I63">
+        <v>14058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>285</v>
-      </c>
-      <c r="B64" s="8">
-        <v>23071</v>
-      </c>
-      <c r="C64" s="9">
+        <v>723</v>
+      </c>
+      <c r="B64">
+        <v>16673</v>
+      </c>
+      <c r="C64" s="8">
         <v>18899</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64">
+        <v>15865</v>
+      </c>
+      <c r="F64">
+        <v>13373</v>
+      </c>
+      <c r="G64" t="s">
+        <v>815</v>
+      </c>
+      <c r="H64">
+        <v>21973</v>
+      </c>
+      <c r="I64">
+        <v>40985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>286</v>
-      </c>
-      <c r="B65" s="8">
-        <v>21890</v>
-      </c>
-      <c r="C65" s="9">
+        <v>724</v>
+      </c>
+      <c r="B65">
+        <v>16217</v>
+      </c>
+      <c r="C65" s="8">
         <v>12837</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>604</v>
+      </c>
+      <c r="E65">
+        <v>14165</v>
+      </c>
+      <c r="F65">
+        <v>52715</v>
+      </c>
+      <c r="G65" t="s">
+        <v>816</v>
+      </c>
+      <c r="H65">
+        <v>18062</v>
+      </c>
+      <c r="I65">
+        <v>20293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>287</v>
-      </c>
-      <c r="B66" s="8">
-        <v>31813</v>
-      </c>
-      <c r="C66" s="9">
+        <v>725</v>
+      </c>
+      <c r="B66">
+        <v>23957</v>
+      </c>
+      <c r="C66" s="8">
         <v>146798</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>605</v>
+      </c>
+      <c r="E66">
+        <v>12008</v>
+      </c>
+      <c r="F66">
+        <v>15569</v>
+      </c>
+      <c r="G66" t="s">
+        <v>817</v>
+      </c>
+      <c r="H66">
+        <v>15674</v>
+      </c>
+      <c r="I66">
+        <v>34078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>288</v>
-      </c>
-      <c r="B67" s="8">
-        <v>28347</v>
-      </c>
-      <c r="C67" s="9">
+        <v>726</v>
+      </c>
+      <c r="B67">
+        <v>19516</v>
+      </c>
+      <c r="C67" s="8">
         <v>27061</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>606</v>
+      </c>
+      <c r="E67">
+        <v>13325</v>
+      </c>
+      <c r="F67">
+        <v>7916</v>
+      </c>
+      <c r="G67" t="s">
+        <v>818</v>
+      </c>
+      <c r="H67">
+        <v>17478</v>
+      </c>
+      <c r="I67">
+        <v>52727</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>289</v>
-      </c>
-      <c r="B68" s="8">
-        <v>23731</v>
-      </c>
-      <c r="C68" s="9">
+        <v>727</v>
+      </c>
+      <c r="B68">
+        <v>16835</v>
+      </c>
+      <c r="C68" s="8">
         <v>13755</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>607</v>
+      </c>
+      <c r="E68">
+        <v>10429</v>
+      </c>
+      <c r="F68">
+        <v>12401</v>
+      </c>
+      <c r="G68" t="s">
+        <v>819</v>
+      </c>
+      <c r="H68">
+        <v>16093</v>
+      </c>
+      <c r="I68">
+        <v>27695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>290</v>
-      </c>
-      <c r="B69" s="8">
-        <v>22791</v>
-      </c>
-      <c r="C69" s="9">
+        <v>728</v>
+      </c>
+      <c r="B69">
+        <v>17163</v>
+      </c>
+      <c r="C69" s="8">
         <v>36019</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>608</v>
+      </c>
+      <c r="E69">
+        <v>11984</v>
+      </c>
+      <c r="F69">
+        <v>25277</v>
+      </c>
+      <c r="G69" t="s">
+        <v>820</v>
+      </c>
+      <c r="H69">
+        <v>20428</v>
+      </c>
+      <c r="I69">
+        <v>152061</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>291</v>
-      </c>
-      <c r="B70" s="8">
-        <v>23781</v>
-      </c>
-      <c r="C70" s="9">
+        <v>729</v>
+      </c>
+      <c r="B70">
+        <v>16954</v>
+      </c>
+      <c r="C70" s="8">
         <v>27401</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>609</v>
+      </c>
+      <c r="E70">
+        <v>12031</v>
+      </c>
+      <c r="F70">
+        <v>14092</v>
+      </c>
+      <c r="G70" t="s">
+        <v>821</v>
+      </c>
+      <c r="H70">
+        <v>18444</v>
+      </c>
+      <c r="I70">
+        <v>42337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>292</v>
-      </c>
-      <c r="B71" s="8">
-        <v>24100</v>
-      </c>
-      <c r="C71" s="9">
+        <v>730</v>
+      </c>
+      <c r="B71">
+        <v>17559</v>
+      </c>
+      <c r="C71" s="8">
         <v>26523</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71">
+        <v>13602</v>
+      </c>
+      <c r="F71">
+        <v>23361</v>
+      </c>
+      <c r="G71" t="s">
+        <v>822</v>
+      </c>
+      <c r="H71">
+        <v>18680</v>
+      </c>
+      <c r="I71">
+        <v>34726</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>293</v>
-      </c>
-      <c r="B72" s="8">
-        <v>25975</v>
-      </c>
-      <c r="C72" s="9">
+        <v>731</v>
+      </c>
+      <c r="B72">
+        <v>17997</v>
+      </c>
+      <c r="C72" s="8">
         <v>18261</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E72">
+        <v>17072</v>
+      </c>
+      <c r="F72">
+        <v>9804</v>
+      </c>
+      <c r="G72" t="s">
+        <v>823</v>
+      </c>
+      <c r="H72">
+        <v>18582</v>
+      </c>
+      <c r="I72">
+        <v>128852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>294</v>
-      </c>
-      <c r="B73" s="8">
-        <v>27596</v>
-      </c>
-      <c r="C73" s="9">
+        <v>732</v>
+      </c>
+      <c r="B73">
+        <v>19756</v>
+      </c>
+      <c r="C73" s="8">
         <v>265559</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>612</v>
+      </c>
+      <c r="E73">
+        <v>15962</v>
+      </c>
+      <c r="F73">
+        <v>26573</v>
+      </c>
+      <c r="G73" t="s">
+        <v>824</v>
+      </c>
+      <c r="H73">
+        <v>17569</v>
+      </c>
+      <c r="I73">
+        <v>73345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>295</v>
-      </c>
-      <c r="B74" s="8">
-        <v>21948</v>
-      </c>
-      <c r="C74" s="9">
+        <v>733</v>
+      </c>
+      <c r="B74">
+        <v>16065</v>
+      </c>
+      <c r="C74" s="8">
         <v>22960</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>613</v>
+      </c>
+      <c r="E74">
+        <v>16016</v>
+      </c>
+      <c r="F74">
+        <v>8080</v>
+      </c>
+      <c r="G74" t="s">
+        <v>825</v>
+      </c>
+      <c r="H74">
+        <v>19239</v>
+      </c>
+      <c r="I74">
+        <v>61792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>296</v>
-      </c>
-      <c r="B75" s="8">
-        <v>27732</v>
-      </c>
-      <c r="C75" s="9">
+        <v>734</v>
+      </c>
+      <c r="B75">
+        <v>20324</v>
+      </c>
+      <c r="C75" s="8">
         <v>43445</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>614</v>
+      </c>
+      <c r="E75">
+        <v>19533</v>
+      </c>
+      <c r="F75">
+        <v>65514</v>
+      </c>
+      <c r="G75" t="s">
+        <v>826</v>
+      </c>
+      <c r="H75">
+        <v>15408</v>
+      </c>
+      <c r="I75">
+        <v>79195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>297</v>
-      </c>
-      <c r="B76" s="8">
-        <v>24727</v>
-      </c>
-      <c r="C76" s="9">
+        <v>735</v>
+      </c>
+      <c r="B76">
+        <v>18000</v>
+      </c>
+      <c r="C76" s="8">
         <v>20391</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>615</v>
+      </c>
+      <c r="E76">
+        <v>9896</v>
+      </c>
+      <c r="F76">
+        <v>17080</v>
+      </c>
+      <c r="G76" t="s">
+        <v>827</v>
+      </c>
+      <c r="H76">
+        <v>17027</v>
+      </c>
+      <c r="I76">
+        <v>58683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>298</v>
-      </c>
-      <c r="B77" s="8">
-        <v>19722</v>
-      </c>
-      <c r="C77" s="9">
+        <v>736</v>
+      </c>
+      <c r="B77">
+        <v>16466</v>
+      </c>
+      <c r="C77" s="8">
         <v>23556</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>616</v>
+      </c>
+      <c r="E77">
+        <v>16046</v>
+      </c>
+      <c r="F77">
+        <v>9938</v>
+      </c>
+      <c r="G77" t="s">
+        <v>828</v>
+      </c>
+      <c r="H77">
+        <v>20255</v>
+      </c>
+      <c r="I77">
+        <v>47910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" s="8">
-        <v>26537</v>
-      </c>
-      <c r="C78" s="9">
+        <v>737</v>
+      </c>
+      <c r="B78">
+        <v>20647</v>
+      </c>
+      <c r="C78" s="8">
         <v>33214</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>617</v>
+      </c>
+      <c r="E78">
+        <v>16790</v>
+      </c>
+      <c r="F78">
+        <v>70872</v>
+      </c>
+      <c r="G78" t="s">
+        <v>829</v>
+      </c>
+      <c r="H78">
+        <v>20417</v>
+      </c>
+      <c r="I78">
+        <v>378098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" s="8">
-        <v>20345</v>
-      </c>
-      <c r="C79" s="9">
+        <v>738</v>
+      </c>
+      <c r="B79">
+        <v>16234</v>
+      </c>
+      <c r="C79" s="8">
         <v>21751</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>618</v>
+      </c>
+      <c r="E79">
+        <v>10685</v>
+      </c>
+      <c r="F79">
+        <v>13332</v>
+      </c>
+      <c r="G79" t="s">
+        <v>830</v>
+      </c>
+      <c r="H79">
+        <v>22842</v>
+      </c>
+      <c r="I79">
+        <v>542899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>301</v>
-      </c>
-      <c r="B80" s="8">
-        <v>21547</v>
-      </c>
-      <c r="C80" s="9">
+        <v>739</v>
+      </c>
+      <c r="B80">
+        <v>17466</v>
+      </c>
+      <c r="C80" s="8">
         <v>9065</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>619</v>
+      </c>
+      <c r="E80">
+        <v>14472</v>
+      </c>
+      <c r="F80">
+        <v>18212</v>
+      </c>
+      <c r="G80" t="s">
+        <v>831</v>
+      </c>
+      <c r="H80">
+        <v>19188</v>
+      </c>
+      <c r="I80">
+        <v>225116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>302</v>
-      </c>
-      <c r="B81" s="8">
-        <v>25038</v>
-      </c>
-      <c r="C81" s="9">
+        <v>740</v>
+      </c>
+      <c r="B81">
+        <v>19375</v>
+      </c>
+      <c r="C81" s="8">
         <v>148955</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>620</v>
+      </c>
+      <c r="E81">
+        <v>18069</v>
+      </c>
+      <c r="F81">
+        <v>30125</v>
+      </c>
+      <c r="G81" t="s">
+        <v>832</v>
+      </c>
+      <c r="H81">
+        <v>17276</v>
+      </c>
+      <c r="I81">
+        <v>90914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" s="8">
-        <v>28935</v>
-      </c>
-      <c r="C82" s="9">
+        <v>741</v>
+      </c>
+      <c r="B82">
+        <v>21926</v>
+      </c>
+      <c r="C82" s="8">
         <v>16577</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>621</v>
+      </c>
+      <c r="E82">
+        <v>10650</v>
+      </c>
+      <c r="F82">
+        <v>12578</v>
+      </c>
+      <c r="G82" t="s">
+        <v>833</v>
+      </c>
+      <c r="H82">
+        <v>20577</v>
+      </c>
+      <c r="I82">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>304</v>
-      </c>
-      <c r="B83" s="8">
-        <v>23795</v>
-      </c>
-      <c r="C83" s="9">
+        <v>742</v>
+      </c>
+      <c r="B83">
+        <v>19549</v>
+      </c>
+      <c r="C83" s="8">
         <v>7349</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>622</v>
+      </c>
+      <c r="E83">
+        <v>16589</v>
+      </c>
+      <c r="F83">
+        <v>16800</v>
+      </c>
+      <c r="G83" t="s">
+        <v>834</v>
+      </c>
+      <c r="H83">
+        <v>18293</v>
+      </c>
+      <c r="I83">
+        <v>29659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>305</v>
-      </c>
-      <c r="B84" s="8">
-        <v>29182</v>
-      </c>
-      <c r="C84" s="9">
+        <v>743</v>
+      </c>
+      <c r="B84">
+        <v>20655</v>
+      </c>
+      <c r="C84" s="8">
         <v>171922</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>623</v>
+      </c>
+      <c r="E84">
+        <v>16000</v>
+      </c>
+      <c r="F84">
+        <v>26349</v>
+      </c>
+      <c r="G84" t="s">
+        <v>835</v>
+      </c>
+      <c r="H84">
+        <v>13731</v>
+      </c>
+      <c r="I84">
+        <v>12806</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>306</v>
-      </c>
-      <c r="B85" s="8">
-        <v>24319</v>
-      </c>
-      <c r="C85" s="9">
+        <v>744</v>
+      </c>
+      <c r="B85">
+        <v>18579</v>
+      </c>
+      <c r="C85" s="8">
         <v>16788</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>624</v>
+      </c>
+      <c r="E85">
+        <v>11399</v>
+      </c>
+      <c r="F85">
+        <v>6556</v>
+      </c>
+      <c r="G85" t="s">
+        <v>836</v>
+      </c>
+      <c r="H85">
+        <v>25517</v>
+      </c>
+      <c r="I85">
+        <v>158383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>307</v>
-      </c>
-      <c r="B86" s="8">
-        <v>23080</v>
-      </c>
-      <c r="C86" s="9">
+        <v>745</v>
+      </c>
+      <c r="B86">
+        <v>17620</v>
+      </c>
+      <c r="C86" s="8">
         <v>105848</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>625</v>
+      </c>
+      <c r="E86">
+        <v>17972</v>
+      </c>
+      <c r="F86">
+        <v>20817</v>
+      </c>
+      <c r="G86" t="s">
+        <v>837</v>
+      </c>
+      <c r="H86">
+        <v>18082</v>
+      </c>
+      <c r="I86">
+        <v>63251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>308</v>
-      </c>
-      <c r="B87" s="8">
-        <v>25825</v>
-      </c>
-      <c r="C87" s="9">
+        <v>746</v>
+      </c>
+      <c r="B87">
+        <v>18192</v>
+      </c>
+      <c r="C87" s="8">
         <v>34960</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>626</v>
+      </c>
+      <c r="E87">
+        <v>13236</v>
+      </c>
+      <c r="F87">
+        <v>10037</v>
+      </c>
+      <c r="G87" t="s">
+        <v>838</v>
+      </c>
+      <c r="H87">
+        <v>18330</v>
+      </c>
+      <c r="I87">
+        <v>111564</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>309</v>
-      </c>
-      <c r="B88" s="8">
-        <v>23987</v>
-      </c>
-      <c r="C88" s="9">
+        <v>747</v>
+      </c>
+      <c r="B88">
+        <v>18070</v>
+      </c>
+      <c r="C88" s="8">
         <v>8419</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>627</v>
+      </c>
+      <c r="E88">
+        <v>14365</v>
+      </c>
+      <c r="F88">
+        <v>11756</v>
+      </c>
+      <c r="G88" t="s">
+        <v>839</v>
+      </c>
+      <c r="H88">
+        <v>18441</v>
+      </c>
+      <c r="I88">
+        <v>39188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>310</v>
-      </c>
-      <c r="B89" s="8">
-        <v>29510</v>
-      </c>
-      <c r="C89" s="9">
+        <v>748</v>
+      </c>
+      <c r="B89">
+        <v>21893</v>
+      </c>
+      <c r="C89" s="8">
         <v>52383</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>628</v>
+      </c>
+      <c r="E89">
+        <v>16701</v>
+      </c>
+      <c r="F89">
+        <v>22554</v>
+      </c>
+      <c r="G89" t="s">
+        <v>840</v>
+      </c>
+      <c r="H89">
+        <v>21284</v>
+      </c>
+      <c r="I89">
+        <v>121065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>311</v>
-      </c>
-      <c r="B90" s="8">
-        <v>23014</v>
-      </c>
-      <c r="C90" s="9">
+        <v>749</v>
+      </c>
+      <c r="B90">
+        <v>16748</v>
+      </c>
+      <c r="C90" s="8">
         <v>27223</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>629</v>
+      </c>
+      <c r="E90">
+        <v>12657</v>
+      </c>
+      <c r="F90">
+        <v>13948</v>
+      </c>
+      <c r="G90" t="s">
+        <v>841</v>
+      </c>
+      <c r="H90">
+        <v>17170</v>
+      </c>
+      <c r="I90">
+        <v>22908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>312</v>
-      </c>
-      <c r="B91" s="8">
-        <v>25126</v>
-      </c>
-      <c r="C91" s="9">
+        <v>750</v>
+      </c>
+      <c r="B91">
+        <v>17727</v>
+      </c>
+      <c r="C91" s="8">
         <v>71097</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>630</v>
+      </c>
+      <c r="E91">
+        <v>14798</v>
+      </c>
+      <c r="F91">
+        <v>31839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>313</v>
-      </c>
-      <c r="B92" s="8">
-        <v>26875</v>
-      </c>
-      <c r="C92" s="9">
+        <v>751</v>
+      </c>
+      <c r="B92">
+        <v>19158</v>
+      </c>
+      <c r="C92" s="8">
         <v>27600</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>631</v>
+      </c>
+      <c r="E92">
+        <v>18120</v>
+      </c>
+      <c r="F92">
+        <v>37477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>314</v>
-      </c>
-      <c r="B93" s="8">
-        <v>24813</v>
-      </c>
-      <c r="C93" s="9">
+        <v>752</v>
+      </c>
+      <c r="B93">
+        <v>18323</v>
+      </c>
+      <c r="C93" s="8">
         <v>25267</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93">
+        <v>15880</v>
+      </c>
+      <c r="F93">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B94" s="8">
-        <v>27043</v>
-      </c>
-      <c r="C94" s="9">
+        <v>753</v>
+      </c>
+      <c r="B94">
+        <v>20519</v>
+      </c>
+      <c r="C94" s="8">
         <v>30707</v>
+      </c>
+      <c r="D94" t="s">
+        <v>633</v>
+      </c>
+      <c r="E94">
+        <v>15317</v>
+      </c>
+      <c r="F94">
+        <v>22916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>634</v>
+      </c>
+      <c r="E95">
+        <v>25374</v>
+      </c>
+      <c r="F95">
+        <v>46178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>635</v>
+      </c>
+      <c r="E96">
+        <v>15521</v>
+      </c>
+      <c r="F96">
+        <v>10547</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>636</v>
+      </c>
+      <c r="E97">
+        <v>10742</v>
+      </c>
+      <c r="F97">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>637</v>
+      </c>
+      <c r="E98">
+        <v>16551</v>
+      </c>
+      <c r="F98">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>638</v>
+      </c>
+      <c r="E99">
+        <v>12224</v>
+      </c>
+      <c r="F99">
+        <v>29390</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>639</v>
+      </c>
+      <c r="E100">
+        <v>14005</v>
+      </c>
+      <c r="F100">
+        <v>68736</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>640</v>
+      </c>
+      <c r="E101">
+        <v>13060</v>
+      </c>
+      <c r="F101">
+        <v>13237</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>641</v>
+      </c>
+      <c r="E102">
+        <v>15352</v>
+      </c>
+      <c r="F102">
+        <v>56217</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>642</v>
+      </c>
+      <c r="E103">
+        <v>13404</v>
+      </c>
+      <c r="F103">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>643</v>
+      </c>
+      <c r="E104">
+        <v>12337</v>
+      </c>
+      <c r="F104">
+        <v>16582</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>644</v>
+      </c>
+      <c r="E105">
+        <v>13888</v>
+      </c>
+      <c r="F105">
+        <v>22094</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>645</v>
+      </c>
+      <c r="E106">
+        <v>13183</v>
+      </c>
+      <c r="F106">
+        <v>16315</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>646</v>
+      </c>
+      <c r="E107">
+        <v>21490</v>
+      </c>
+      <c r="F107">
+        <v>33061</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>647</v>
+      </c>
+      <c r="E108">
+        <v>20195</v>
+      </c>
+      <c r="F108">
+        <v>33337</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>648</v>
+      </c>
+      <c r="E109">
+        <v>17150</v>
+      </c>
+      <c r="F109">
+        <v>16405</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>649</v>
+      </c>
+      <c r="E110">
+        <v>19848</v>
+      </c>
+      <c r="F110">
+        <v>11766</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>650</v>
+      </c>
+      <c r="E111">
+        <v>15162</v>
+      </c>
+      <c r="F111">
+        <v>22927</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>651</v>
+      </c>
+      <c r="E112">
+        <v>15462</v>
+      </c>
+      <c r="F112">
+        <v>11971</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>652</v>
+      </c>
+      <c r="E113">
+        <v>17184</v>
+      </c>
+      <c r="F113">
+        <v>12597</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>653</v>
+      </c>
+      <c r="E114">
+        <v>16354</v>
+      </c>
+      <c r="F114">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>654</v>
+      </c>
+      <c r="E115">
+        <v>17465</v>
+      </c>
+      <c r="F115">
+        <v>15637</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>655</v>
+      </c>
+      <c r="E116">
+        <v>18847</v>
+      </c>
+      <c r="F116">
+        <v>92522</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>656</v>
+      </c>
+      <c r="E117">
+        <v>15722</v>
+      </c>
+      <c r="F117">
+        <v>10916</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>657</v>
+      </c>
+      <c r="E118">
+        <v>12601</v>
+      </c>
+      <c r="F118">
+        <v>19923</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>658</v>
+      </c>
+      <c r="E119">
+        <v>15657</v>
+      </c>
+      <c r="F119">
+        <v>14120</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>659</v>
+      </c>
+      <c r="E120">
+        <v>12777</v>
+      </c>
+      <c r="F120">
+        <v>35865</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>660</v>
+      </c>
+      <c r="E121">
+        <v>10321</v>
+      </c>
+      <c r="F121">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>661</v>
+      </c>
+      <c r="E122">
+        <v>22839</v>
+      </c>
+      <c r="F122">
+        <v>23208</v>
       </c>
     </row>
   </sheetData>
@@ -8244,10 +11073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D1684-A849-7F48-BB51-2498A53778A7}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8308,8 +11137,26 @@
       <c r="B3">
         <v>28104</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>34387</v>
+      </c>
+      <c r="D3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3">
+        <v>15790</v>
+      </c>
+      <c r="F3">
+        <v>18656</v>
+      </c>
+      <c r="G3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H3">
+        <v>17693</v>
+      </c>
+      <c r="I3">
+        <v>28550</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8319,8 +11166,26 @@
       <c r="B4">
         <v>34471</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>355329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4">
+        <v>16897</v>
+      </c>
+      <c r="F4">
+        <v>19956</v>
+      </c>
+      <c r="G4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H4">
+        <v>21713</v>
+      </c>
+      <c r="I4">
+        <v>106331</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8330,8 +11195,26 @@
       <c r="B5">
         <v>37554</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>76794</v>
+      </c>
+      <c r="D5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5">
+        <v>24516</v>
+      </c>
+      <c r="F5">
+        <v>21421</v>
+      </c>
+      <c r="G5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H5">
+        <v>20558</v>
+      </c>
+      <c r="I5">
+        <v>53139</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8341,8 +11224,26 @@
       <c r="B6">
         <v>33505</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>8854</v>
+      </c>
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6">
+        <v>23001</v>
+      </c>
+      <c r="F6">
+        <v>8249</v>
+      </c>
+      <c r="G6" t="s">
+        <v>757</v>
+      </c>
+      <c r="H6">
+        <v>19898</v>
+      </c>
+      <c r="I6">
+        <v>101497</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8352,8 +11253,26 @@
       <c r="B7">
         <v>30572</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>12766</v>
+      </c>
+      <c r="D7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E7">
+        <v>20067</v>
+      </c>
+      <c r="F7">
+        <v>42173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>758</v>
+      </c>
+      <c r="H7">
+        <v>16642</v>
+      </c>
+      <c r="I7">
+        <v>64757</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8363,8 +11282,26 @@
       <c r="B8">
         <v>51001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>56640</v>
+      </c>
+      <c r="D8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8">
+        <v>15487</v>
+      </c>
+      <c r="F8">
+        <v>11591</v>
+      </c>
+      <c r="G8" t="s">
+        <v>759</v>
+      </c>
+      <c r="H8">
+        <v>25290</v>
+      </c>
+      <c r="I8">
+        <v>45949</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8374,8 +11311,26 @@
       <c r="B9">
         <v>34191</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>15242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E9">
+        <v>14627</v>
+      </c>
+      <c r="F9">
+        <v>28691</v>
+      </c>
+      <c r="G9" t="s">
+        <v>760</v>
+      </c>
+      <c r="H9">
+        <v>20266</v>
+      </c>
+      <c r="I9">
+        <v>70400</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8385,8 +11340,26 @@
       <c r="B10">
         <v>32897</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>20155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10">
+        <v>28520</v>
+      </c>
+      <c r="F10">
+        <v>118811</v>
+      </c>
+      <c r="G10" t="s">
+        <v>761</v>
+      </c>
+      <c r="H10">
+        <v>20167</v>
+      </c>
+      <c r="I10">
+        <v>44846</v>
       </c>
       <c r="K10" t="s">
         <v>529</v>
@@ -8399,8 +11372,26 @@
       <c r="B11">
         <v>29877</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>38966</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11">
+        <v>21355</v>
+      </c>
+      <c r="F11">
+        <v>19985</v>
+      </c>
+      <c r="G11" t="s">
+        <v>762</v>
+      </c>
+      <c r="H11">
+        <v>25892</v>
+      </c>
+      <c r="I11">
+        <v>368130</v>
       </c>
       <c r="K11" t="s">
         <v>535</v>
@@ -8416,11 +11407,32 @@
       <c r="B12">
         <v>35794</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>110232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12">
+        <v>22064</v>
+      </c>
+      <c r="F12">
+        <v>49542</v>
+      </c>
+      <c r="G12" t="s">
+        <v>763</v>
+      </c>
+      <c r="H12">
+        <v>21575</v>
+      </c>
+      <c r="I12">
+        <v>28836</v>
       </c>
       <c r="K12" t="s">
         <v>539</v>
+      </c>
+      <c r="L12" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8430,11 +11442,32 @@
       <c r="B13">
         <v>30013</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>26890</v>
+      </c>
+      <c r="D13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E13">
+        <v>22534</v>
+      </c>
+      <c r="F13">
+        <v>28432</v>
+      </c>
+      <c r="G13" t="s">
+        <v>764</v>
+      </c>
+      <c r="H13">
+        <v>23438</v>
+      </c>
+      <c r="I13">
+        <v>40097</v>
       </c>
       <c r="K13" t="s">
         <v>540</v>
+      </c>
+      <c r="L13" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8444,8 +11477,26 @@
       <c r="B14">
         <v>29811</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>33224</v>
+      </c>
+      <c r="D14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E14">
+        <v>18671</v>
+      </c>
+      <c r="F14">
+        <v>8488</v>
+      </c>
+      <c r="G14" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14">
+        <v>22110</v>
+      </c>
+      <c r="I14">
+        <v>138333</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8455,8 +11506,26 @@
       <c r="B15">
         <v>26159</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>10713</v>
+      </c>
+      <c r="D15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E15">
+        <v>16442</v>
+      </c>
+      <c r="F15">
+        <v>13878</v>
+      </c>
+      <c r="G15" t="s">
+        <v>766</v>
+      </c>
+      <c r="H15">
+        <v>27900</v>
+      </c>
+      <c r="I15">
+        <v>197363</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
@@ -8466,866 +11535,2560 @@
       <c r="B16">
         <v>31645</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>31648</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>555</v>
+      </c>
+      <c r="E16">
+        <v>17757</v>
+      </c>
+      <c r="F16">
+        <v>20059</v>
+      </c>
+      <c r="G16" t="s">
+        <v>767</v>
+      </c>
+      <c r="H16">
+        <v>22163</v>
+      </c>
+      <c r="I16">
+        <v>42040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>238</v>
       </c>
       <c r="B17">
         <v>35402</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>50047</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>556</v>
+      </c>
+      <c r="E17">
+        <v>22791</v>
+      </c>
+      <c r="F17">
+        <v>74319</v>
+      </c>
+      <c r="G17" t="s">
+        <v>768</v>
+      </c>
+      <c r="H17">
+        <v>19635</v>
+      </c>
+      <c r="I17">
+        <v>107841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>239</v>
       </c>
       <c r="B18">
         <v>33209</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>25740</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18">
+        <v>17236</v>
+      </c>
+      <c r="F18">
+        <v>12690</v>
+      </c>
+      <c r="G18" t="s">
+        <v>769</v>
+      </c>
+      <c r="H18">
+        <v>19635</v>
+      </c>
+      <c r="I18">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>536</v>
       </c>
       <c r="B19">
         <v>31349</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>42223</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19">
+        <v>19498</v>
+      </c>
+      <c r="F19">
+        <v>12984</v>
+      </c>
+      <c r="G19" t="s">
+        <v>770</v>
+      </c>
+      <c r="H19">
+        <v>20590</v>
+      </c>
+      <c r="I19">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>241</v>
       </c>
       <c r="B20">
         <v>28156</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>117671</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>559</v>
+      </c>
+      <c r="E20">
+        <v>20951</v>
+      </c>
+      <c r="F20">
+        <v>37191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>771</v>
+      </c>
+      <c r="H20">
+        <v>26263</v>
+      </c>
+      <c r="I20">
+        <v>1280122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>242</v>
       </c>
       <c r="B21">
         <v>40097</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>41889</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E21">
+        <v>27096</v>
+      </c>
+      <c r="F21">
+        <v>90336</v>
+      </c>
+      <c r="G21" t="s">
+        <v>772</v>
+      </c>
+      <c r="H21">
+        <v>21483</v>
+      </c>
+      <c r="I21">
+        <v>52959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>243</v>
       </c>
       <c r="B22">
         <v>30297</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>197559</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E22">
+        <v>17260</v>
+      </c>
+      <c r="F22">
+        <v>5104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>773</v>
+      </c>
+      <c r="H22">
+        <v>22139</v>
+      </c>
+      <c r="I22">
+        <v>39037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>244</v>
       </c>
       <c r="B23">
         <v>29470</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>24277</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>562</v>
+      </c>
+      <c r="E23">
+        <v>21845</v>
+      </c>
+      <c r="F23">
+        <v>10811</v>
+      </c>
+      <c r="G23" t="s">
+        <v>774</v>
+      </c>
+      <c r="H23">
+        <v>40682</v>
+      </c>
+      <c r="I23">
+        <v>174214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>245</v>
       </c>
       <c r="B24">
         <v>38473</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>74578</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24">
+        <v>18147</v>
+      </c>
+      <c r="F24">
+        <v>27720</v>
+      </c>
+      <c r="G24" t="s">
+        <v>775</v>
+      </c>
+      <c r="H24">
+        <v>25290</v>
+      </c>
+      <c r="I24">
+        <v>77079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>246</v>
       </c>
       <c r="B25">
         <v>31464</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>17240</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E25">
+        <v>14252</v>
+      </c>
+      <c r="F25">
+        <v>15955</v>
+      </c>
+      <c r="G25" t="s">
+        <v>776</v>
+      </c>
+      <c r="H25">
+        <v>26130</v>
+      </c>
+      <c r="I25">
+        <v>146156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>247</v>
       </c>
       <c r="B26">
         <v>36928</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>23087</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>565</v>
+      </c>
+      <c r="E26">
+        <v>18476</v>
+      </c>
+      <c r="F26">
+        <v>73955</v>
+      </c>
+      <c r="G26" t="s">
+        <v>777</v>
+      </c>
+      <c r="H26">
+        <v>20525</v>
+      </c>
+      <c r="I26">
+        <v>29030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>248</v>
       </c>
       <c r="B27">
         <v>31476</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>20836</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E27">
+        <v>23966</v>
+      </c>
+      <c r="F27">
+        <v>35613</v>
+      </c>
+      <c r="G27" t="s">
+        <v>778</v>
+      </c>
+      <c r="H27">
+        <v>26909</v>
+      </c>
+      <c r="I27">
+        <v>1163414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>249</v>
       </c>
       <c r="B28">
         <v>33572</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>33503</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E28">
+        <v>12300</v>
+      </c>
+      <c r="F28">
+        <v>21730</v>
+      </c>
+      <c r="G28" t="s">
+        <v>779</v>
+      </c>
+      <c r="H28">
+        <v>22804</v>
+      </c>
+      <c r="I28">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>250</v>
       </c>
       <c r="B29">
         <v>30421</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>70061</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E29">
+        <v>14802</v>
+      </c>
+      <c r="F29">
+        <v>10272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>780</v>
+      </c>
+      <c r="H29">
+        <v>20199</v>
+      </c>
+      <c r="I29">
+        <v>30934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>251</v>
       </c>
       <c r="B30">
         <v>30880</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>33165</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>569</v>
+      </c>
+      <c r="E30">
+        <v>19463</v>
+      </c>
+      <c r="F30">
+        <v>9315</v>
+      </c>
+      <c r="G30" t="s">
+        <v>781</v>
+      </c>
+      <c r="H30">
+        <v>32735</v>
+      </c>
+      <c r="I30">
+        <v>93389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>252</v>
       </c>
       <c r="B31">
         <v>53680</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>274569</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E31">
+        <v>15025</v>
+      </c>
+      <c r="F31">
+        <v>6856</v>
+      </c>
+      <c r="G31" t="s">
+        <v>782</v>
+      </c>
+      <c r="H31">
+        <v>28328</v>
+      </c>
+      <c r="I31">
+        <v>161573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>253</v>
       </c>
       <c r="B32">
         <v>38652</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>70002</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E32">
+        <v>22064</v>
+      </c>
+      <c r="F32">
+        <v>96656</v>
+      </c>
+      <c r="G32" t="s">
+        <v>783</v>
+      </c>
+      <c r="H32">
+        <v>19187</v>
+      </c>
+      <c r="I32">
+        <v>40087</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>254</v>
       </c>
       <c r="B33">
         <v>33214</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>39364</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>572</v>
+      </c>
+      <c r="E33">
+        <v>18959</v>
+      </c>
+      <c r="F33">
+        <v>12161</v>
+      </c>
+      <c r="G33" t="s">
+        <v>784</v>
+      </c>
+      <c r="H33">
+        <v>28799</v>
+      </c>
+      <c r="I33">
+        <v>802374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>255</v>
       </c>
       <c r="B34">
         <v>37730</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>145448</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>573</v>
+      </c>
+      <c r="E34">
+        <v>13072</v>
+      </c>
+      <c r="F34">
+        <v>7852</v>
+      </c>
+      <c r="G34" t="s">
+        <v>785</v>
+      </c>
+      <c r="H34">
+        <v>25158</v>
+      </c>
+      <c r="I34">
+        <v>74782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>256</v>
       </c>
       <c r="B35">
         <v>28915</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>49462</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>574</v>
+      </c>
+      <c r="E35">
+        <v>15725</v>
+      </c>
+      <c r="F35">
+        <v>14672</v>
+      </c>
+      <c r="G35" t="s">
+        <v>786</v>
+      </c>
+      <c r="H35">
+        <v>19100</v>
+      </c>
+      <c r="I35">
+        <v>32058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>257</v>
       </c>
       <c r="B36">
         <v>31075</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>82752</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>575</v>
+      </c>
+      <c r="E36">
+        <v>28345</v>
+      </c>
+      <c r="F36">
+        <v>295803</v>
+      </c>
+      <c r="G36" t="s">
+        <v>787</v>
+      </c>
+      <c r="H36">
+        <v>19318</v>
+      </c>
+      <c r="I36">
+        <v>15864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>258</v>
       </c>
       <c r="B37">
         <v>31721</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>37124</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E37">
+        <v>17629</v>
+      </c>
+      <c r="F37">
+        <v>14348</v>
+      </c>
+      <c r="G37" t="s">
+        <v>788</v>
+      </c>
+      <c r="H37">
+        <v>22638</v>
+      </c>
+      <c r="I37">
+        <v>28215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>259</v>
       </c>
       <c r="B38">
         <v>34123</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>42376</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>577</v>
+      </c>
+      <c r="E38">
+        <v>15883</v>
+      </c>
+      <c r="F38">
+        <v>39451</v>
+      </c>
+      <c r="G38" t="s">
+        <v>789</v>
+      </c>
+      <c r="H38">
+        <v>18966</v>
+      </c>
+      <c r="I38">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>260</v>
       </c>
       <c r="B39">
         <v>33729</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>33478</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39">
+        <v>26857</v>
+      </c>
+      <c r="F39">
+        <v>49285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>790</v>
+      </c>
+      <c r="H39">
+        <v>19048</v>
+      </c>
+      <c r="I39">
+        <v>29380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>261</v>
       </c>
       <c r="B40">
         <v>30011</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>21253</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40">
+        <v>16908</v>
+      </c>
+      <c r="F40">
+        <v>6813</v>
+      </c>
+      <c r="G40" t="s">
+        <v>791</v>
+      </c>
+      <c r="H40">
+        <v>17009</v>
+      </c>
+      <c r="I40">
+        <v>42366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>262</v>
       </c>
       <c r="B41">
         <v>32627</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>32428</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>580</v>
+      </c>
+      <c r="E41">
+        <v>17810</v>
+      </c>
+      <c r="F41">
+        <v>8589</v>
+      </c>
+      <c r="G41" t="s">
+        <v>792</v>
+      </c>
+      <c r="H41">
+        <v>21743</v>
+      </c>
+      <c r="I41">
+        <v>59626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>263</v>
       </c>
       <c r="B42">
         <v>28138</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>28525</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>581</v>
+      </c>
+      <c r="E42">
+        <v>18735</v>
+      </c>
+      <c r="F42">
+        <v>16912</v>
+      </c>
+      <c r="G42" t="s">
+        <v>793</v>
+      </c>
+      <c r="H42">
+        <v>18775</v>
+      </c>
+      <c r="I42">
+        <v>33225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>264</v>
       </c>
       <c r="B43">
         <v>37001</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>139654</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>582</v>
+      </c>
+      <c r="E43">
+        <v>20257</v>
+      </c>
+      <c r="F43">
+        <v>24662</v>
+      </c>
+      <c r="G43" t="s">
+        <v>794</v>
+      </c>
+      <c r="H43">
+        <v>20470</v>
+      </c>
+      <c r="I43">
+        <v>69709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>265</v>
       </c>
       <c r="B44">
         <v>34582</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>38440</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44">
+        <v>19976</v>
+      </c>
+      <c r="F44">
+        <v>37121</v>
+      </c>
+      <c r="G44" t="s">
+        <v>795</v>
+      </c>
+      <c r="H44">
+        <v>21204</v>
+      </c>
+      <c r="I44">
+        <v>60921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>266</v>
       </c>
       <c r="B45">
         <v>34189</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>77358</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>584</v>
+      </c>
+      <c r="E45">
+        <v>17443</v>
+      </c>
+      <c r="F45">
+        <v>25746</v>
+      </c>
+      <c r="G45" t="s">
+        <v>796</v>
+      </c>
+      <c r="H45">
+        <v>28221</v>
+      </c>
+      <c r="I45">
+        <v>230041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>537</v>
       </c>
       <c r="B46">
         <v>25624</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>37128</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>585</v>
+      </c>
+      <c r="E46">
+        <v>21281</v>
+      </c>
+      <c r="F46">
+        <v>11258</v>
+      </c>
+      <c r="G46" t="s">
+        <v>797</v>
+      </c>
+      <c r="H46">
+        <v>19452</v>
+      </c>
+      <c r="I46">
+        <v>62450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>268</v>
       </c>
       <c r="B47">
         <v>34118</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>496005</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>586</v>
+      </c>
+      <c r="E47">
+        <v>21533</v>
+      </c>
+      <c r="F47">
+        <v>36910</v>
+      </c>
+      <c r="G47" t="s">
+        <v>798</v>
+      </c>
+      <c r="H47">
+        <v>25534</v>
+      </c>
+      <c r="I47">
+        <v>166492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>538</v>
       </c>
       <c r="B48">
         <v>31932</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>111467</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>587</v>
+      </c>
+      <c r="E48">
+        <v>19952</v>
+      </c>
+      <c r="F48">
+        <v>8565</v>
+      </c>
+      <c r="G48" t="s">
+        <v>799</v>
+      </c>
+      <c r="H48">
+        <v>22974</v>
+      </c>
+      <c r="I48">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>270</v>
       </c>
       <c r="B49">
         <v>30765</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>46134</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>588</v>
+      </c>
+      <c r="E49">
+        <v>22997</v>
+      </c>
+      <c r="F49">
+        <v>105543</v>
+      </c>
+      <c r="G49" t="s">
+        <v>800</v>
+      </c>
+      <c r="H49">
+        <v>25002</v>
+      </c>
+      <c r="I49">
+        <v>301356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>271</v>
       </c>
       <c r="B50">
         <v>29047</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>131636</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>589</v>
+      </c>
+      <c r="E50">
+        <v>15224</v>
+      </c>
+      <c r="F50">
+        <v>29278</v>
+      </c>
+      <c r="G50" t="s">
+        <v>801</v>
+      </c>
+      <c r="H50">
+        <v>23981</v>
+      </c>
+      <c r="I50">
+        <v>441815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>272</v>
       </c>
       <c r="B51">
         <v>41633</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>903393</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>590</v>
+      </c>
+      <c r="E51">
+        <v>20037</v>
+      </c>
+      <c r="F51">
+        <v>18846</v>
+      </c>
+      <c r="G51" t="s">
+        <v>802</v>
+      </c>
+      <c r="H51">
+        <v>23980</v>
+      </c>
+      <c r="I51">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>273</v>
       </c>
       <c r="B52">
         <v>31112</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>47051</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>591</v>
+      </c>
+      <c r="E52">
+        <v>16726</v>
+      </c>
+      <c r="F52">
+        <v>18199</v>
+      </c>
+      <c r="G52" t="s">
+        <v>803</v>
+      </c>
+      <c r="H52">
+        <v>22824</v>
+      </c>
+      <c r="I52">
+        <v>238823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>274</v>
       </c>
       <c r="B53">
         <v>32510</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>10334</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>592</v>
+      </c>
+      <c r="E53">
+        <v>22192</v>
+      </c>
+      <c r="F53">
+        <v>46250</v>
+      </c>
+      <c r="G53" t="s">
+        <v>804</v>
+      </c>
+      <c r="H53">
+        <v>19849</v>
+      </c>
+      <c r="I53">
+        <v>66501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>275</v>
       </c>
       <c r="B54">
         <v>25675</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>36903</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>593</v>
+      </c>
+      <c r="E54">
+        <v>21090</v>
+      </c>
+      <c r="F54">
+        <v>15416</v>
+      </c>
+      <c r="G54" t="s">
+        <v>805</v>
+      </c>
+      <c r="H54">
+        <v>29986</v>
+      </c>
+      <c r="I54">
+        <v>172332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>276</v>
       </c>
       <c r="B55">
         <v>30726</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>137974</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>594</v>
+      </c>
+      <c r="E55">
+        <v>19953</v>
+      </c>
+      <c r="F55">
+        <v>4902</v>
+      </c>
+      <c r="G55" t="s">
+        <v>806</v>
+      </c>
+      <c r="H55">
+        <v>18003</v>
+      </c>
+      <c r="I55">
+        <v>23770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>277</v>
       </c>
       <c r="B56">
         <v>33383</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>38124</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>595</v>
+      </c>
+      <c r="E56">
+        <v>21347</v>
+      </c>
+      <c r="F56">
+        <v>46920</v>
+      </c>
+      <c r="G56" t="s">
+        <v>807</v>
+      </c>
+      <c r="H56">
+        <v>22348</v>
+      </c>
+      <c r="I56">
+        <v>40814</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>278</v>
       </c>
       <c r="B57">
         <v>34082</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>68894</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>596</v>
+      </c>
+      <c r="E57">
+        <v>13935</v>
+      </c>
+      <c r="F57">
+        <v>13494</v>
+      </c>
+      <c r="G57" t="s">
+        <v>808</v>
+      </c>
+      <c r="H57">
+        <v>25006</v>
+      </c>
+      <c r="I57">
+        <v>102506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>279</v>
       </c>
       <c r="B58">
         <v>30934</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>14244</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>597</v>
+      </c>
+      <c r="E58">
+        <v>26473</v>
+      </c>
+      <c r="F58">
+        <v>741096</v>
+      </c>
+      <c r="G58" t="s">
+        <v>809</v>
+      </c>
+      <c r="H58">
+        <v>18738</v>
+      </c>
+      <c r="I58">
+        <v>14642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>280</v>
       </c>
       <c r="B59">
         <v>28088</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>47536</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>598</v>
+      </c>
+      <c r="E59">
+        <v>24097</v>
+      </c>
+      <c r="F59">
+        <v>48586</v>
+      </c>
+      <c r="G59" t="s">
+        <v>810</v>
+      </c>
+      <c r="H59">
+        <v>24828</v>
+      </c>
+      <c r="I59">
+        <v>535153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>281</v>
       </c>
       <c r="B60">
         <v>49274</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>6128</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>599</v>
+      </c>
+      <c r="E60">
+        <v>18486</v>
+      </c>
+      <c r="F60">
+        <v>23356</v>
+      </c>
+      <c r="G60" t="s">
+        <v>811</v>
+      </c>
+      <c r="H60">
+        <v>18777</v>
+      </c>
+      <c r="I60">
+        <v>15054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>282</v>
       </c>
       <c r="B61">
         <v>28483</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>19840</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>600</v>
+      </c>
+      <c r="E61">
+        <v>27205</v>
+      </c>
+      <c r="F61">
+        <v>159720</v>
+      </c>
+      <c r="G61" t="s">
+        <v>812</v>
+      </c>
+      <c r="H61">
+        <v>20795</v>
+      </c>
+      <c r="I61">
+        <v>34827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>283</v>
       </c>
       <c r="B62">
         <v>29686</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>21575</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>601</v>
+      </c>
+      <c r="E62">
+        <v>16110</v>
+      </c>
+      <c r="F62">
+        <v>16346</v>
+      </c>
+      <c r="G62" t="s">
+        <v>813</v>
+      </c>
+      <c r="H62">
+        <v>20561</v>
+      </c>
+      <c r="I62">
+        <v>86074</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>284</v>
       </c>
       <c r="B63">
         <v>27632</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>17339</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>602</v>
+      </c>
+      <c r="E63">
+        <v>14101</v>
+      </c>
+      <c r="F63">
+        <v>31883</v>
+      </c>
+      <c r="G63" t="s">
+        <v>814</v>
+      </c>
+      <c r="H63">
+        <v>20029</v>
+      </c>
+      <c r="I63">
+        <v>14645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>285</v>
       </c>
       <c r="B64">
         <v>28212</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>19338</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64">
+        <v>18474</v>
+      </c>
+      <c r="F64">
+        <v>14193</v>
+      </c>
+      <c r="G64" t="s">
+        <v>815</v>
+      </c>
+      <c r="H64">
+        <v>27809</v>
+      </c>
+      <c r="I64">
+        <v>41428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>286</v>
       </c>
       <c r="B65">
         <v>31041</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>12845</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>604</v>
+      </c>
+      <c r="E65">
+        <v>19604</v>
+      </c>
+      <c r="F65">
+        <v>58849</v>
+      </c>
+      <c r="G65" t="s">
+        <v>816</v>
+      </c>
+      <c r="H65">
+        <v>20919</v>
+      </c>
+      <c r="I65">
+        <v>19614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>287</v>
       </c>
       <c r="B66">
         <v>38595</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>164343</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>605</v>
+      </c>
+      <c r="E66">
+        <v>15903</v>
+      </c>
+      <c r="F66">
+        <v>15860</v>
+      </c>
+      <c r="G66" t="s">
+        <v>817</v>
+      </c>
+      <c r="H66">
+        <v>18916</v>
+      </c>
+      <c r="I66">
+        <v>36058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>288</v>
       </c>
       <c r="B67">
         <v>37764</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>25910</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>606</v>
+      </c>
+      <c r="E67">
+        <v>12983</v>
+      </c>
+      <c r="F67">
+        <v>7887</v>
+      </c>
+      <c r="G67" t="s">
+        <v>818</v>
+      </c>
+      <c r="H67">
+        <v>21432</v>
+      </c>
+      <c r="I67">
+        <v>55698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>289</v>
       </c>
       <c r="B68">
         <v>33437</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>13402</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>607</v>
+      </c>
+      <c r="E68">
+        <v>14753</v>
+      </c>
+      <c r="F68">
+        <v>11310</v>
+      </c>
+      <c r="G68" t="s">
+        <v>819</v>
+      </c>
+      <c r="H68">
+        <v>17494</v>
+      </c>
+      <c r="I68">
+        <v>28709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>290</v>
       </c>
       <c r="B69">
         <v>28115</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>37963</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>608</v>
+      </c>
+      <c r="E69">
+        <v>17393</v>
+      </c>
+      <c r="F69">
+        <v>24519</v>
+      </c>
+      <c r="G69" t="s">
+        <v>820</v>
+      </c>
+      <c r="H69">
+        <v>25097</v>
+      </c>
+      <c r="I69">
+        <v>161419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>291</v>
       </c>
       <c r="B70">
         <v>29416</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>26171</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>609</v>
+      </c>
+      <c r="E70">
+        <v>14915</v>
+      </c>
+      <c r="F70">
+        <v>13870</v>
+      </c>
+      <c r="G70" t="s">
+        <v>821</v>
+      </c>
+      <c r="H70">
+        <v>23290</v>
+      </c>
+      <c r="I70">
+        <v>42270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>292</v>
       </c>
       <c r="B71">
         <v>33536</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>28818</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71">
+        <v>16985</v>
+      </c>
+      <c r="F71">
+        <v>24742</v>
+      </c>
+      <c r="G71" t="s">
+        <v>822</v>
+      </c>
+      <c r="H71">
+        <v>24023</v>
+      </c>
+      <c r="I71">
+        <v>34499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>293</v>
       </c>
       <c r="B72">
         <v>32360</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>17392</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E72">
+        <v>20800</v>
+      </c>
+      <c r="F72">
+        <v>9519</v>
+      </c>
+      <c r="G72" t="s">
+        <v>823</v>
+      </c>
+      <c r="H72">
+        <v>21459</v>
+      </c>
+      <c r="I72">
+        <v>124475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>294</v>
       </c>
       <c r="B73">
         <v>34597</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>266931</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>612</v>
+      </c>
+      <c r="E73">
+        <v>19443</v>
+      </c>
+      <c r="F73">
+        <v>26835</v>
+      </c>
+      <c r="G73" t="s">
+        <v>824</v>
+      </c>
+      <c r="H73">
+        <v>20595</v>
+      </c>
+      <c r="I73">
+        <v>78064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>295</v>
       </c>
       <c r="B74">
         <v>27567</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>24181</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>613</v>
+      </c>
+      <c r="E74">
+        <v>19036</v>
+      </c>
+      <c r="F74">
+        <v>8314</v>
+      </c>
+      <c r="G74" t="s">
+        <v>825</v>
+      </c>
+      <c r="H74">
+        <v>22286</v>
+      </c>
+      <c r="I74">
+        <v>60944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>296</v>
       </c>
       <c r="B75">
         <v>33097</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>44436</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>614</v>
+      </c>
+      <c r="E75">
+        <v>24709</v>
+      </c>
+      <c r="F75">
+        <v>65565</v>
+      </c>
+      <c r="G75" t="s">
+        <v>826</v>
+      </c>
+      <c r="H75">
+        <v>17778</v>
+      </c>
+      <c r="I75">
+        <v>79499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>297</v>
       </c>
       <c r="B76">
         <v>33721</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>20952</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>615</v>
+      </c>
+      <c r="E76">
+        <v>12197</v>
+      </c>
+      <c r="F76">
+        <v>18306</v>
+      </c>
+      <c r="G76" t="s">
+        <v>827</v>
+      </c>
+      <c r="H76">
+        <v>20976</v>
+      </c>
+      <c r="I76">
+        <v>56745</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>298</v>
       </c>
       <c r="B77">
         <v>27346</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>23363</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>616</v>
+      </c>
+      <c r="E77">
+        <v>21071</v>
+      </c>
+      <c r="F77">
+        <v>9531</v>
+      </c>
+      <c r="G77" t="s">
+        <v>828</v>
+      </c>
+      <c r="H77">
+        <v>21948</v>
+      </c>
+      <c r="I77">
+        <v>49423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>299</v>
       </c>
       <c r="B78">
         <v>30572</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>34185</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>617</v>
+      </c>
+      <c r="E78">
+        <v>21536</v>
+      </c>
+      <c r="F78">
+        <v>82916</v>
+      </c>
+      <c r="G78" t="s">
+        <v>829</v>
+      </c>
+      <c r="H78">
+        <v>24015</v>
+      </c>
+      <c r="I78">
+        <v>375586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>300</v>
       </c>
       <c r="B79">
         <v>28534</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>21475</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>618</v>
+      </c>
+      <c r="E79">
+        <v>13849</v>
+      </c>
+      <c r="F79">
+        <v>13333</v>
+      </c>
+      <c r="G79" t="s">
+        <v>830</v>
+      </c>
+      <c r="H79">
+        <v>26676</v>
+      </c>
+      <c r="I79">
+        <v>541781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>301</v>
       </c>
       <c r="B80">
         <v>24078</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>10613</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>619</v>
+      </c>
+      <c r="E80">
+        <v>18445</v>
+      </c>
+      <c r="F80">
+        <v>19820</v>
+      </c>
+      <c r="G80" t="s">
+        <v>831</v>
+      </c>
+      <c r="H80">
+        <v>21854</v>
+      </c>
+      <c r="I80">
+        <v>210312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>302</v>
       </c>
       <c r="B81">
         <v>30518</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>172780</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>620</v>
+      </c>
+      <c r="E81">
+        <v>23056</v>
+      </c>
+      <c r="F81">
+        <v>31448</v>
+      </c>
+      <c r="G81" t="s">
+        <v>832</v>
+      </c>
+      <c r="H81">
+        <v>20536</v>
+      </c>
+      <c r="I81">
+        <v>92582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>303</v>
       </c>
       <c r="B82">
         <v>32469</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>15936</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>621</v>
+      </c>
+      <c r="E82">
+        <v>14785</v>
+      </c>
+      <c r="F82">
+        <v>12929</v>
+      </c>
+      <c r="G82" t="s">
+        <v>833</v>
+      </c>
+      <c r="H82">
+        <v>27389</v>
+      </c>
+      <c r="I82">
+        <v>52300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>304</v>
       </c>
       <c r="B83">
         <v>28609</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>7516</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>622</v>
+      </c>
+      <c r="E83">
+        <v>21717</v>
+      </c>
+      <c r="F83">
+        <v>17490</v>
+      </c>
+      <c r="G83" t="s">
+        <v>834</v>
+      </c>
+      <c r="H83">
+        <v>20772</v>
+      </c>
+      <c r="I83">
+        <v>28744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>305</v>
       </c>
       <c r="B84">
         <v>38313</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>179703</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>623</v>
+      </c>
+      <c r="E84">
+        <v>18823</v>
+      </c>
+      <c r="F84">
+        <v>28602</v>
+      </c>
+      <c r="G84" t="s">
+        <v>835</v>
+      </c>
+      <c r="H84">
+        <v>16736</v>
+      </c>
+      <c r="I84">
+        <v>13435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>306</v>
       </c>
       <c r="B85">
         <v>32033</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>16212</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>624</v>
+      </c>
+      <c r="E85">
+        <v>15418</v>
+      </c>
+      <c r="F85">
+        <v>6306</v>
+      </c>
+      <c r="G85" t="s">
+        <v>836</v>
+      </c>
+      <c r="H85">
+        <v>31935</v>
+      </c>
+      <c r="I85">
+        <v>212693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>307</v>
       </c>
       <c r="B86">
         <v>31310</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>107848</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>625</v>
+      </c>
+      <c r="E86">
+        <v>23645</v>
+      </c>
+      <c r="F86">
+        <v>21331</v>
+      </c>
+      <c r="G86" t="s">
+        <v>837</v>
+      </c>
+      <c r="H86">
+        <v>22786</v>
+      </c>
+      <c r="I86">
+        <v>61778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>308</v>
       </c>
       <c r="B87">
         <v>31321</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>32888</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>626</v>
+      </c>
+      <c r="E87">
+        <v>16835</v>
+      </c>
+      <c r="F87">
+        <v>10099</v>
+      </c>
+      <c r="G87" t="s">
+        <v>838</v>
+      </c>
+      <c r="H87">
+        <v>22645</v>
+      </c>
+      <c r="I87">
+        <v>114520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>309</v>
       </c>
       <c r="B88">
         <v>34737</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>8508</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>627</v>
+      </c>
+      <c r="E88">
+        <v>15534</v>
+      </c>
+      <c r="F88">
+        <v>10963</v>
+      </c>
+      <c r="G88" t="s">
+        <v>839</v>
+      </c>
+      <c r="H88">
+        <v>21381</v>
+      </c>
+      <c r="I88">
+        <v>37642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>310</v>
       </c>
       <c r="B89">
         <v>40961</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>59689</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>628</v>
+      </c>
+      <c r="E89">
+        <v>20004</v>
+      </c>
+      <c r="F89">
+        <v>26499</v>
+      </c>
+      <c r="G89" t="s">
+        <v>840</v>
+      </c>
+      <c r="H89">
+        <v>26671</v>
+      </c>
+      <c r="I89">
+        <v>125488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>311</v>
       </c>
       <c r="B90">
         <v>27918</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>28262</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>629</v>
+      </c>
+      <c r="E90">
+        <v>17705</v>
+      </c>
+      <c r="F90">
+        <v>13923</v>
+      </c>
+      <c r="G90" t="s">
+        <v>841</v>
+      </c>
+      <c r="H90">
+        <v>22553</v>
+      </c>
+      <c r="I90">
+        <v>22615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>312</v>
       </c>
       <c r="B91">
         <v>30847</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>68917</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>630</v>
+      </c>
+      <c r="E91">
+        <v>18538</v>
+      </c>
+      <c r="F91">
+        <v>31499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>313</v>
       </c>
       <c r="B92">
         <v>33427</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>27636</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>631</v>
+      </c>
+      <c r="E92">
+        <v>21763</v>
+      </c>
+      <c r="F92">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
       <c r="B93">
         <v>33093</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>24643</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93">
+        <v>18452</v>
+      </c>
+      <c r="F93">
+        <v>7135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>315</v>
       </c>
       <c r="B94">
         <v>33090</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>33292</v>
+      </c>
+      <c r="D94" t="s">
+        <v>633</v>
+      </c>
+      <c r="E94">
+        <v>18258</v>
+      </c>
+      <c r="F94">
+        <v>23842</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>634</v>
+      </c>
+      <c r="E95">
+        <v>32702</v>
+      </c>
+      <c r="F95">
+        <v>60316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>635</v>
+      </c>
+      <c r="E96">
+        <v>21754</v>
+      </c>
+      <c r="F96">
+        <v>10841</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>636</v>
+      </c>
+      <c r="E97">
+        <v>10767</v>
+      </c>
+      <c r="F97">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>637</v>
+      </c>
+      <c r="E98">
+        <v>19523</v>
+      </c>
+      <c r="F98">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>638</v>
+      </c>
+      <c r="E99">
+        <v>19049</v>
+      </c>
+      <c r="F99">
+        <v>28712</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>639</v>
+      </c>
+      <c r="E100">
+        <v>18973</v>
+      </c>
+      <c r="F100">
+        <v>65024</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>640</v>
+      </c>
+      <c r="E101">
+        <v>15796</v>
+      </c>
+      <c r="F101">
+        <v>12613</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>641</v>
+      </c>
+      <c r="E102">
+        <v>19540</v>
+      </c>
+      <c r="F102">
+        <v>63063</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>642</v>
+      </c>
+      <c r="E103">
+        <v>15374</v>
+      </c>
+      <c r="F103">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>643</v>
+      </c>
+      <c r="E104">
+        <v>15621</v>
+      </c>
+      <c r="F104">
+        <v>17056</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>644</v>
+      </c>
+      <c r="E105">
+        <v>17435</v>
+      </c>
+      <c r="F105">
+        <v>23333</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>645</v>
+      </c>
+      <c r="E106">
+        <v>17868</v>
+      </c>
+      <c r="F106">
+        <v>17565</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>646</v>
+      </c>
+      <c r="E107">
+        <v>26838</v>
+      </c>
+      <c r="F107">
+        <v>47173</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>647</v>
+      </c>
+      <c r="E108">
+        <v>27593</v>
+      </c>
+      <c r="F108">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>648</v>
+      </c>
+      <c r="E109">
+        <v>20426</v>
+      </c>
+      <c r="F109">
+        <v>17327</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>649</v>
+      </c>
+      <c r="E110">
+        <v>25589</v>
+      </c>
+      <c r="F110">
+        <v>17061</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>650</v>
+      </c>
+      <c r="E111">
+        <v>18014</v>
+      </c>
+      <c r="F111">
+        <v>24512</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>651</v>
+      </c>
+      <c r="E112">
+        <v>17460</v>
+      </c>
+      <c r="F112">
+        <v>12460</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>652</v>
+      </c>
+      <c r="E113">
+        <v>23387</v>
+      </c>
+      <c r="F113">
+        <v>14339</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>653</v>
+      </c>
+      <c r="E114">
+        <v>21161</v>
+      </c>
+      <c r="F114">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>654</v>
+      </c>
+      <c r="E115">
+        <v>18811</v>
+      </c>
+      <c r="F115">
+        <v>15007</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>655</v>
+      </c>
+      <c r="E116">
+        <v>23206</v>
+      </c>
+      <c r="F116">
+        <v>113792</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>656</v>
+      </c>
+      <c r="E117">
+        <v>20873</v>
+      </c>
+      <c r="F117">
+        <v>11717</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>657</v>
+      </c>
+      <c r="E118">
+        <v>16109</v>
+      </c>
+      <c r="F118">
+        <v>20813</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>658</v>
+      </c>
+      <c r="E119">
+        <v>18879</v>
+      </c>
+      <c r="F119">
+        <v>13621</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>659</v>
+      </c>
+      <c r="E120">
+        <v>15258</v>
+      </c>
+      <c r="F120">
+        <v>35637</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>660</v>
+      </c>
+      <c r="E121">
+        <v>11214</v>
+      </c>
+      <c r="F121">
+        <v>7355</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>661</v>
+      </c>
+      <c r="E122">
+        <v>28501</v>
+      </c>
+      <c r="F122">
+        <v>24939</v>
       </c>
     </row>
   </sheetData>

--- a/County numbers IN.KY.OH and Income per capita.xlsx
+++ b/County numbers IN.KY.OH and Income per capita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF772B-6093-6643-B609-C721814C6018}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32226BD-0C1C-B34B-B42F-AE24D1C7C6B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="1" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
+    <workbookView xWindow="13000" yWindow="0" windowWidth="12600" windowHeight="16000" activeTab="1" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
   </bookViews>
   <sheets>
     <sheet name="CountyID" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="844">
   <si>
     <t>OH</t>
   </si>
@@ -2955,7 +2955,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5054,10 +5054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D18F04-88A1-F646-94FB-EAFD7F2B0F21}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8036,6 +8036,28 @@
       </c>
       <c r="F120" s="6">
         <v>33326</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>660</v>
+      </c>
+      <c r="E121" s="4">
+        <v>5998</v>
+      </c>
+      <c r="F121" s="6">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>661</v>
+      </c>
+      <c r="E122" s="4">
+        <v>14151</v>
+      </c>
+      <c r="F122" s="6">
+        <v>19955</v>
       </c>
     </row>
   </sheetData>
@@ -8047,8 +8069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B23DF3-5912-DB45-94D5-24C26AFDA966}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I90"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11075,7 +11097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280D1684-A849-7F48-BB51-2498A53778A7}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
